--- a/jsonToExcel/JM/JM-5-output.xlsx
+++ b/jsonToExcel/JM/JM-5-output.xlsx
@@ -397,2666 +397,4270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>店铺ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>SPU系统</v>
+      </c>
+      <c r="C1" t="str">
         <v>SKC系统</v>
       </c>
-      <c r="B1" t="str">
+      <c r="D1" t="str">
         <v>SKU系统</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>条码编码</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>SKC货号</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>SKU货号</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>中文颜色</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>尺码</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>英文颜色</v>
+      </c>
+      <c r="K1" t="str">
+        <v>缩略图</v>
+      </c>
+      <c r="L1" t="str">
+        <v>类目标签</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>634418216186000</v>
+      </c>
+      <c r="B2">
+        <v>1811003792</v>
+      </c>
+      <c r="C2">
         <v>37090156318</v>
       </c>
-      <c r="B2">
-        <v>82565032516</v>
-      </c>
-      <c r="C2">
-        <v>59623808546</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="D2">
+        <v>76210807877</v>
+      </c>
+      <c r="E2">
+        <v>17876302328</v>
+      </c>
+      <c r="F2" t="str">
         <v>6230</v>
       </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v>粉色</v>
-      </c>
       <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v>深蓝</v>
+      </c>
+      <c r="I2" t="str">
         <v>32</v>
       </c>
-      <c r="H2" t="str">
-        <v>Pink</v>
+      <c r="J2" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K2" t="str">
+        <v>https://img.kwcdn.com/product/fancy/235cf7d1-b89c-48dd-a1ca-f784fe991559.jpg</v>
+      </c>
+      <c r="L2" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>634418216186000</v>
+      </c>
+      <c r="B3">
+        <v>1811003792</v>
+      </c>
+      <c r="C3">
         <v>37090156318</v>
       </c>
-      <c r="B3">
-        <v>33723385867</v>
-      </c>
-      <c r="C3">
-        <v>72412482613</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="D3">
+        <v>76856234503</v>
+      </c>
+      <c r="E3">
+        <v>98030848546</v>
+      </c>
+      <c r="F3" t="str">
         <v>6230</v>
       </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G3" t="str">
-        <v>38</v>
-      </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
+        <v>31</v>
+      </c>
+      <c r="J3" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K3" t="str">
+        <v>https://img.kwcdn.com/product/fancy/235cf7d1-b89c-48dd-a1ca-f784fe991559.jpg</v>
+      </c>
+      <c r="L3" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>634418216186000</v>
+      </c>
+      <c r="B4">
+        <v>1811003792</v>
+      </c>
+      <c r="C4">
         <v>37090156318</v>
       </c>
-      <c r="B4">
-        <v>34024628989</v>
-      </c>
-      <c r="C4">
-        <v>76588603794</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="D4">
+        <v>24707112748</v>
+      </c>
+      <c r="E4">
+        <v>22430749624</v>
+      </c>
+      <c r="F4" t="str">
         <v>6230</v>
       </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G4" t="str">
-        <v>37</v>
-      </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
+        <v>35</v>
+      </c>
+      <c r="J4" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K4" t="str">
+        <v>https://img.kwcdn.com/product/fancy/235cf7d1-b89c-48dd-a1ca-f784fe991559.jpg</v>
+      </c>
+      <c r="L4" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>634418216186000</v>
+      </c>
+      <c r="B5">
+        <v>1811003792</v>
+      </c>
+      <c r="C5">
         <v>37090156318</v>
       </c>
-      <c r="B5">
-        <v>67231810264</v>
-      </c>
-      <c r="C5">
-        <v>19205990175</v>
-      </c>
-      <c r="D5" t="str">
+      <c r="D5">
+        <v>70426324816</v>
+      </c>
+      <c r="E5">
+        <v>69539743427</v>
+      </c>
+      <c r="F5" t="str">
         <v>6230</v>
       </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
         <v>灰色</v>
       </c>
-      <c r="G5" t="str">
-        <v>36</v>
-      </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
+        <v>32</v>
+      </c>
+      <c r="J5" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K5" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fcfcce8-26e4-4ee0-9fc3-44ca2030a964.jpg</v>
+      </c>
+      <c r="L5" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>634418216186000</v>
+      </c>
+      <c r="B6">
+        <v>1811003792</v>
+      </c>
+      <c r="C6">
         <v>37090156318</v>
       </c>
-      <c r="B6">
-        <v>78864329158</v>
-      </c>
-      <c r="C6">
-        <v>69312312322</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="D6">
+        <v>29635639430</v>
+      </c>
+      <c r="E6">
+        <v>94546593137</v>
+      </c>
+      <c r="F6" t="str">
         <v>6230</v>
       </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
         <v>粉色</v>
       </c>
-      <c r="G6" t="str">
-        <v>35</v>
-      </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
+        <v>34</v>
+      </c>
+      <c r="J6" t="str">
         <v>Pink</v>
+      </c>
+      <c r="K6" t="str">
+        <v>https://img.kwcdn.com/product/fancy/829093ad-58fc-422f-94a7-fc0a8f3f17d1.jpg</v>
+      </c>
+      <c r="L6" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>38836671694</v>
+        <v>634418216186000</v>
       </c>
       <c r="B7">
-        <v>82517454966</v>
+        <v>1811003792</v>
       </c>
       <c r="C7">
-        <v>93148842083</v>
-      </c>
-      <c r="D7" t="str">
-        <v>1262</v>
-      </c>
-      <c r="E7" t="str">
-        <v/>
+        <v>37090156318</v>
+      </c>
+      <c r="D7">
+        <v>67105157303</v>
+      </c>
+      <c r="E7">
+        <v>81529299333</v>
       </c>
       <c r="F7" t="str">
-        <v>粉色</v>
+        <v>6230</v>
       </c>
       <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>深蓝</v>
+      </c>
+      <c r="I7" t="str">
         <v>30</v>
       </c>
-      <c r="H7" t="str">
-        <v>Pink</v>
+      <c r="J7" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K7" t="str">
+        <v>https://img.kwcdn.com/product/fancy/235cf7d1-b89c-48dd-a1ca-f784fe991559.jpg</v>
+      </c>
+      <c r="L7" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>38836671694</v>
+        <v>634418216186000</v>
       </c>
       <c r="B8">
-        <v>11286519654</v>
+        <v>1811003792</v>
       </c>
       <c r="C8">
-        <v>64938927698</v>
-      </c>
-      <c r="D8" t="str">
-        <v>1262</v>
-      </c>
-      <c r="E8" t="str">
-        <v/>
+        <v>37090156318</v>
+      </c>
+      <c r="D8">
+        <v>20854744394</v>
+      </c>
+      <c r="E8">
+        <v>20841890691</v>
       </c>
       <c r="F8" t="str">
+        <v>6230</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
         <v>粉色</v>
       </c>
-      <c r="G8" t="str">
-        <v>34</v>
-      </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
+        <v>30</v>
+      </c>
+      <c r="J8" t="str">
         <v>Pink</v>
+      </c>
+      <c r="K8" t="str">
+        <v>https://img.kwcdn.com/product/fancy/829093ad-58fc-422f-94a7-fc0a8f3f17d1.jpg</v>
+      </c>
+      <c r="L8" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>38836671694</v>
+        <v>634418216186000</v>
       </c>
       <c r="B9">
-        <v>49785484435</v>
+        <v>1811003792</v>
       </c>
       <c r="C9">
-        <v>68702395853</v>
-      </c>
-      <c r="D9" t="str">
-        <v>1262</v>
-      </c>
-      <c r="E9" t="str">
-        <v/>
+        <v>37090156318</v>
+      </c>
+      <c r="D9">
+        <v>94718061151</v>
+      </c>
+      <c r="E9">
+        <v>26981248246</v>
       </c>
       <c r="F9" t="str">
-        <v>粉色</v>
+        <v>6230</v>
       </c>
       <c r="G9" t="str">
-        <v>37</v>
+        <v/>
       </c>
       <c r="H9" t="str">
-        <v>Pink</v>
+        <v>灰色</v>
+      </c>
+      <c r="I9" t="str">
+        <v>39</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Grey</v>
+      </c>
+      <c r="K9" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fcfcce8-26e4-4ee0-9fc3-44ca2030a964.jpg</v>
+      </c>
+      <c r="L9" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>38836671694</v>
+        <v>634418216186000</v>
       </c>
       <c r="B10">
-        <v>85622415981</v>
+        <v>1811003792</v>
       </c>
       <c r="C10">
-        <v>61378039945</v>
-      </c>
-      <c r="D10" t="str">
-        <v>1262</v>
-      </c>
-      <c r="E10" t="str">
-        <v/>
+        <v>37090156318</v>
+      </c>
+      <c r="D10">
+        <v>94526105864</v>
+      </c>
+      <c r="E10">
+        <v>79742259398</v>
       </c>
       <c r="F10" t="str">
+        <v>6230</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
         <v>粉色</v>
       </c>
-      <c r="G10" t="str">
-        <v>32</v>
-      </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
+        <v>39</v>
+      </c>
+      <c r="J10" t="str">
         <v>Pink</v>
+      </c>
+      <c r="K10" t="str">
+        <v>https://img.kwcdn.com/product/fancy/829093ad-58fc-422f-94a7-fc0a8f3f17d1.jpg</v>
+      </c>
+      <c r="L10" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>38836671694</v>
+        <v>634418216186000</v>
       </c>
       <c r="B11">
-        <v>87335264812</v>
+        <v>1811003792</v>
       </c>
       <c r="C11">
-        <v>57394366726</v>
-      </c>
-      <c r="D11" t="str">
-        <v>1262</v>
-      </c>
-      <c r="E11" t="str">
-        <v/>
+        <v>37090156318</v>
+      </c>
+      <c r="D11">
+        <v>34550050870</v>
+      </c>
+      <c r="E11">
+        <v>21943304369</v>
       </c>
       <c r="F11" t="str">
-        <v>粉色</v>
+        <v>6230</v>
       </c>
       <c r="G11" t="str">
-        <v>33</v>
+        <v/>
       </c>
       <c r="H11" t="str">
-        <v>Pink</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I11" t="str">
+        <v>29</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K11" t="str">
+        <v>https://img.kwcdn.com/product/fancy/235cf7d1-b89c-48dd-a1ca-f784fe991559.jpg</v>
+      </c>
+      <c r="L11" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>38836671694</v>
+        <v>634418216186000</v>
       </c>
       <c r="B12">
-        <v>85396981925</v>
+        <v>1811003792</v>
       </c>
       <c r="C12">
-        <v>40067160323</v>
-      </c>
-      <c r="D12" t="str">
-        <v>1262</v>
-      </c>
-      <c r="E12" t="str">
-        <v/>
+        <v>37090156318</v>
+      </c>
+      <c r="D12">
+        <v>82565032516</v>
+      </c>
+      <c r="E12">
+        <v>59623808546</v>
       </c>
       <c r="F12" t="str">
-        <v>紫色</v>
+        <v>6230</v>
       </c>
       <c r="G12" t="str">
-        <v>30</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>Purple</v>
+        <v>粉色</v>
+      </c>
+      <c r="I12" t="str">
+        <v>32</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K12" t="str">
+        <v>https://img.kwcdn.com/product/fancy/829093ad-58fc-422f-94a7-fc0a8f3f17d1.jpg</v>
+      </c>
+      <c r="L12" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>38836671694</v>
+        <v>634418216186000</v>
       </c>
       <c r="B13">
-        <v>39501741067</v>
+        <v>1811003792</v>
       </c>
       <c r="C13">
-        <v>27928743491</v>
-      </c>
-      <c r="D13" t="str">
-        <v>1262</v>
-      </c>
-      <c r="E13" t="str">
-        <v/>
+        <v>37090156318</v>
+      </c>
+      <c r="D13">
+        <v>33723385867</v>
+      </c>
+      <c r="E13">
+        <v>72412482613</v>
       </c>
       <c r="F13" t="str">
-        <v>紫色</v>
+        <v>6230</v>
       </c>
       <c r="G13" t="str">
-        <v>35</v>
+        <v/>
       </c>
       <c r="H13" t="str">
-        <v>Purple</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I13" t="str">
+        <v>38</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K13" t="str">
+        <v>https://img.kwcdn.com/product/fancy/235cf7d1-b89c-48dd-a1ca-f784fe991559.jpg</v>
+      </c>
+      <c r="L13" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>38836671694</v>
+        <v>634418216186000</v>
       </c>
       <c r="B14">
-        <v>82677048426</v>
+        <v>1811003792</v>
       </c>
       <c r="C14">
-        <v>48755501355</v>
-      </c>
-      <c r="D14" t="str">
-        <v>1262</v>
-      </c>
-      <c r="E14" t="str">
-        <v/>
+        <v>37090156318</v>
+      </c>
+      <c r="D14">
+        <v>34024628989</v>
+      </c>
+      <c r="E14">
+        <v>76588603794</v>
       </c>
       <c r="F14" t="str">
-        <v>紫色</v>
+        <v>6230</v>
       </c>
       <c r="G14" t="str">
-        <v>33</v>
+        <v/>
       </c>
       <c r="H14" t="str">
-        <v>Purple</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I14" t="str">
+        <v>37</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K14" t="str">
+        <v>https://img.kwcdn.com/product/fancy/235cf7d1-b89c-48dd-a1ca-f784fe991559.jpg</v>
+      </c>
+      <c r="L14" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>38836671694</v>
+        <v>634418216186000</v>
       </c>
       <c r="B15">
-        <v>61789068610</v>
+        <v>1811003792</v>
       </c>
       <c r="C15">
-        <v>47946721947</v>
-      </c>
-      <c r="D15" t="str">
-        <v>1262</v>
-      </c>
-      <c r="E15" t="str">
-        <v/>
+        <v>37090156318</v>
+      </c>
+      <c r="D15">
+        <v>67231810264</v>
+      </c>
+      <c r="E15">
+        <v>19205990175</v>
       </c>
       <c r="F15" t="str">
-        <v>粉色</v>
+        <v>6230</v>
       </c>
       <c r="G15" t="str">
-        <v>29</v>
+        <v/>
       </c>
       <c r="H15" t="str">
-        <v>Pink</v>
+        <v>灰色</v>
+      </c>
+      <c r="I15" t="str">
+        <v>36</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Grey</v>
+      </c>
+      <c r="K15" t="str">
+        <v>https://img.kwcdn.com/product/fancy/0fcfcce8-26e4-4ee0-9fc3-44ca2030a964.jpg</v>
+      </c>
+      <c r="L15" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>38836671694</v>
+        <v>634418216186000</v>
       </c>
       <c r="B16">
-        <v>89246562058</v>
+        <v>1811003792</v>
       </c>
       <c r="C16">
-        <v>22276020893</v>
-      </c>
-      <c r="D16" t="str">
-        <v>1262</v>
-      </c>
-      <c r="E16" t="str">
-        <v/>
+        <v>37090156318</v>
+      </c>
+      <c r="D16">
+        <v>78864329158</v>
+      </c>
+      <c r="E16">
+        <v>69312312322</v>
       </c>
       <c r="F16" t="str">
+        <v>6230</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
         <v>粉色</v>
       </c>
-      <c r="G16" t="str">
-        <v>38</v>
-      </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
+        <v>35</v>
+      </c>
+      <c r="J16" t="str">
         <v>Pink</v>
+      </c>
+      <c r="K16" t="str">
+        <v>https://img.kwcdn.com/product/fancy/829093ad-58fc-422f-94a7-fc0a8f3f17d1.jpg</v>
+      </c>
+      <c r="L16" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>634418216186000</v>
+      </c>
+      <c r="B17">
+        <v>2894022197</v>
+      </c>
+      <c r="C17">
         <v>38836671694</v>
       </c>
-      <c r="B17">
-        <v>26399775084</v>
-      </c>
-      <c r="C17">
-        <v>32574612114</v>
-      </c>
-      <c r="D17" t="str">
+      <c r="D17">
+        <v>82517454966</v>
+      </c>
+      <c r="E17">
+        <v>93148842083</v>
+      </c>
+      <c r="F17" t="str">
         <v>1262</v>
       </c>
-      <c r="E17" t="str">
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <v>紫色</v>
-      </c>
       <c r="G17" t="str">
-        <v>31</v>
+        <v/>
       </c>
       <c r="H17" t="str">
-        <v>Purple</v>
+        <v>粉色</v>
+      </c>
+      <c r="I17" t="str">
+        <v>30</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K17" t="str">
+        <v>https://img.kwcdn.com/product/fancy/05e9a563-c5e8-46f9-b8b8-6a8a1ab72e24.jpg</v>
+      </c>
+      <c r="L17" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>634418216186000</v>
+      </c>
+      <c r="B18">
+        <v>2894022197</v>
+      </c>
+      <c r="C18">
         <v>38836671694</v>
       </c>
-      <c r="B18">
-        <v>60938766544</v>
-      </c>
-      <c r="C18">
-        <v>78863160445</v>
-      </c>
-      <c r="D18" t="str">
+      <c r="D18">
+        <v>11286519654</v>
+      </c>
+      <c r="E18">
+        <v>64938927698</v>
+      </c>
+      <c r="F18" t="str">
         <v>1262</v>
       </c>
-      <c r="E18" t="str">
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <v>紫色</v>
-      </c>
       <c r="G18" t="str">
-        <v>28</v>
+        <v/>
       </c>
       <c r="H18" t="str">
-        <v>Purple</v>
+        <v>粉色</v>
+      </c>
+      <c r="I18" t="str">
+        <v>34</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K18" t="str">
+        <v>https://img.kwcdn.com/product/fancy/05e9a563-c5e8-46f9-b8b8-6a8a1ab72e24.jpg</v>
+      </c>
+      <c r="L18" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>634418216186000</v>
+      </c>
+      <c r="B19">
+        <v>2894022197</v>
+      </c>
+      <c r="C19">
         <v>38836671694</v>
       </c>
-      <c r="B19">
-        <v>18756223276</v>
-      </c>
-      <c r="C19">
-        <v>58825569339</v>
-      </c>
-      <c r="D19" t="str">
+      <c r="D19">
+        <v>49785484435</v>
+      </c>
+      <c r="E19">
+        <v>68702395853</v>
+      </c>
+      <c r="F19" t="str">
         <v>1262</v>
       </c>
-      <c r="E19" t="str">
-        <v/>
-      </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
         <v>粉色</v>
       </c>
-      <c r="G19" t="str">
-        <v>28</v>
-      </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
+        <v>37</v>
+      </c>
+      <c r="J19" t="str">
         <v>Pink</v>
+      </c>
+      <c r="K19" t="str">
+        <v>https://img.kwcdn.com/product/fancy/05e9a563-c5e8-46f9-b8b8-6a8a1ab72e24.jpg</v>
+      </c>
+      <c r="L19" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>634418216186000</v>
+      </c>
+      <c r="B20">
+        <v>2894022197</v>
+      </c>
+      <c r="C20">
         <v>38836671694</v>
       </c>
-      <c r="B20">
-        <v>11278821152</v>
-      </c>
-      <c r="C20">
-        <v>85254276608</v>
-      </c>
-      <c r="D20" t="str">
+      <c r="D20">
+        <v>85622415981</v>
+      </c>
+      <c r="E20">
+        <v>61378039945</v>
+      </c>
+      <c r="F20" t="str">
         <v>1262</v>
       </c>
-      <c r="E20" t="str">
-        <v/>
-      </c>
-      <c r="F20" t="str">
-        <v>紫色</v>
-      </c>
       <c r="G20" t="str">
-        <v>34</v>
+        <v/>
       </c>
       <c r="H20" t="str">
-        <v>Purple</v>
+        <v>粉色</v>
+      </c>
+      <c r="I20" t="str">
+        <v>32</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K20" t="str">
+        <v>https://img.kwcdn.com/product/fancy/05e9a563-c5e8-46f9-b8b8-6a8a1ab72e24.jpg</v>
+      </c>
+      <c r="L20" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>634418216186000</v>
+      </c>
+      <c r="B21">
+        <v>2894022197</v>
+      </c>
+      <c r="C21">
         <v>38836671694</v>
       </c>
-      <c r="B21">
-        <v>16479926803</v>
-      </c>
-      <c r="C21">
-        <v>26278872152</v>
-      </c>
-      <c r="D21" t="str">
+      <c r="D21">
+        <v>87335264812</v>
+      </c>
+      <c r="E21">
+        <v>57394366726</v>
+      </c>
+      <c r="F21" t="str">
         <v>1262</v>
       </c>
-      <c r="E21" t="str">
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <v>紫色</v>
-      </c>
       <c r="G21" t="str">
-        <v>36</v>
+        <v/>
       </c>
       <c r="H21" t="str">
-        <v>Purple</v>
+        <v>粉色</v>
+      </c>
+      <c r="I21" t="str">
+        <v>33</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K21" t="str">
+        <v>https://img.kwcdn.com/product/fancy/05e9a563-c5e8-46f9-b8b8-6a8a1ab72e24.jpg</v>
+      </c>
+      <c r="L21" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>634418216186000</v>
+      </c>
+      <c r="B22">
+        <v>2894022197</v>
+      </c>
+      <c r="C22">
         <v>38836671694</v>
       </c>
-      <c r="B22">
-        <v>32857180350</v>
-      </c>
-      <c r="C22">
-        <v>58220729389</v>
-      </c>
-      <c r="D22" t="str">
+      <c r="D22">
+        <v>85396981925</v>
+      </c>
+      <c r="E22">
+        <v>40067160323</v>
+      </c>
+      <c r="F22" t="str">
         <v>1262</v>
       </c>
-      <c r="E22" t="str">
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <v>粉色</v>
-      </c>
       <c r="G22" t="str">
-        <v>36</v>
+        <v/>
       </c>
       <c r="H22" t="str">
-        <v>Pink</v>
+        <v>紫色</v>
+      </c>
+      <c r="I22" t="str">
+        <v>30</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="K22" t="str">
+        <v>https://img.kwcdn.com/product/fancy/8078710b-5150-410f-9a69-8c06dfb69595.jpg</v>
+      </c>
+      <c r="L22" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>634418216186000</v>
+      </c>
+      <c r="B23">
+        <v>2894022197</v>
+      </c>
+      <c r="C23">
         <v>38836671694</v>
       </c>
-      <c r="B23">
-        <v>15706539928</v>
-      </c>
-      <c r="C23">
-        <v>51772536519</v>
-      </c>
-      <c r="D23" t="str">
+      <c r="D23">
+        <v>39501741067</v>
+      </c>
+      <c r="E23">
+        <v>27928743491</v>
+      </c>
+      <c r="F23" t="str">
         <v>1262</v>
       </c>
-      <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v>粉色</v>
-      </c>
       <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v>紫色</v>
+      </c>
+      <c r="I23" t="str">
         <v>35</v>
       </c>
-      <c r="H23" t="str">
-        <v>Pink</v>
+      <c r="J23" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="K23" t="str">
+        <v>https://img.kwcdn.com/product/fancy/8078710b-5150-410f-9a69-8c06dfb69595.jpg</v>
+      </c>
+      <c r="L23" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>634418216186000</v>
+      </c>
+      <c r="B24">
+        <v>2894022197</v>
+      </c>
+      <c r="C24">
         <v>38836671694</v>
       </c>
-      <c r="B24">
-        <v>73506132619</v>
-      </c>
-      <c r="C24">
-        <v>82007043185</v>
-      </c>
-      <c r="D24" t="str">
+      <c r="D24">
+        <v>82677048426</v>
+      </c>
+      <c r="E24">
+        <v>48755501355</v>
+      </c>
+      <c r="F24" t="str">
         <v>1262</v>
       </c>
-      <c r="E24" t="str">
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <v>粉色</v>
-      </c>
       <c r="G24" t="str">
-        <v>31</v>
+        <v/>
       </c>
       <c r="H24" t="str">
-        <v>Pink</v>
+        <v>紫色</v>
+      </c>
+      <c r="I24" t="str">
+        <v>33</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="K24" t="str">
+        <v>https://img.kwcdn.com/product/fancy/8078710b-5150-410f-9a69-8c06dfb69595.jpg</v>
+      </c>
+      <c r="L24" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>634418216186000</v>
+      </c>
+      <c r="B25">
+        <v>2894022197</v>
+      </c>
+      <c r="C25">
         <v>38836671694</v>
       </c>
-      <c r="B25">
-        <v>93277314850</v>
-      </c>
-      <c r="C25">
-        <v>82784221796</v>
-      </c>
-      <c r="D25" t="str">
+      <c r="D25">
+        <v>61789068610</v>
+      </c>
+      <c r="E25">
+        <v>47946721947</v>
+      </c>
+      <c r="F25" t="str">
         <v>1262</v>
       </c>
-      <c r="E25" t="str">
-        <v/>
-      </c>
-      <c r="F25" t="str">
-        <v>紫色</v>
-      </c>
       <c r="G25" t="str">
-        <v>37</v>
+        <v/>
       </c>
       <c r="H25" t="str">
-        <v>Purple</v>
+        <v>粉色</v>
+      </c>
+      <c r="I25" t="str">
+        <v>29</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K25" t="str">
+        <v>https://img.kwcdn.com/product/fancy/05e9a563-c5e8-46f9-b8b8-6a8a1ab72e24.jpg</v>
+      </c>
+      <c r="L25" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>634418216186000</v>
+      </c>
+      <c r="B26">
+        <v>2894022197</v>
+      </c>
+      <c r="C26">
         <v>38836671694</v>
       </c>
-      <c r="B26">
-        <v>85904709657</v>
-      </c>
-      <c r="C26">
-        <v>88180745603</v>
-      </c>
-      <c r="D26" t="str">
+      <c r="D26">
+        <v>89246562058</v>
+      </c>
+      <c r="E26">
+        <v>22276020893</v>
+      </c>
+      <c r="F26" t="str">
         <v>1262</v>
       </c>
-      <c r="E26" t="str">
-        <v/>
-      </c>
-      <c r="F26" t="str">
-        <v>紫色</v>
-      </c>
       <c r="G26" t="str">
-        <v>29</v>
+        <v/>
       </c>
       <c r="H26" t="str">
-        <v>Purple</v>
+        <v>粉色</v>
+      </c>
+      <c r="I26" t="str">
+        <v>38</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K26" t="str">
+        <v>https://img.kwcdn.com/product/fancy/05e9a563-c5e8-46f9-b8b8-6a8a1ab72e24.jpg</v>
+      </c>
+      <c r="L26" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>634418216186000</v>
+      </c>
+      <c r="B27">
+        <v>2894022197</v>
+      </c>
+      <c r="C27">
         <v>38836671694</v>
       </c>
-      <c r="B27">
-        <v>49468429539</v>
-      </c>
-      <c r="C27">
-        <v>54549877503</v>
-      </c>
-      <c r="D27" t="str">
+      <c r="D27">
+        <v>26399775084</v>
+      </c>
+      <c r="E27">
+        <v>32574612114</v>
+      </c>
+      <c r="F27" t="str">
         <v>1262</v>
       </c>
-      <c r="E27" t="str">
-        <v/>
-      </c>
-      <c r="F27" t="str">
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
         <v>紫色</v>
       </c>
-      <c r="G27" t="str">
-        <v>38</v>
-      </c>
-      <c r="H27" t="str">
+      <c r="I27" t="str">
+        <v>31</v>
+      </c>
+      <c r="J27" t="str">
         <v>Purple</v>
+      </c>
+      <c r="K27" t="str">
+        <v>https://img.kwcdn.com/product/fancy/8078710b-5150-410f-9a69-8c06dfb69595.jpg</v>
+      </c>
+      <c r="L27" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>634418216186000</v>
+      </c>
+      <c r="B28">
+        <v>2894022197</v>
+      </c>
+      <c r="C28">
         <v>38836671694</v>
       </c>
-      <c r="B28">
-        <v>84574858195</v>
-      </c>
-      <c r="C28">
-        <v>44186725566</v>
-      </c>
-      <c r="D28" t="str">
+      <c r="D28">
+        <v>60938766544</v>
+      </c>
+      <c r="E28">
+        <v>78863160445</v>
+      </c>
+      <c r="F28" t="str">
         <v>1262</v>
       </c>
-      <c r="E28" t="str">
-        <v/>
-      </c>
-      <c r="F28" t="str">
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
         <v>紫色</v>
       </c>
-      <c r="G28" t="str">
-        <v>32</v>
-      </c>
-      <c r="H28" t="str">
+      <c r="I28" t="str">
+        <v>28</v>
+      </c>
+      <c r="J28" t="str">
         <v>Purple</v>
+      </c>
+      <c r="K28" t="str">
+        <v>https://img.kwcdn.com/product/fancy/8078710b-5150-410f-9a69-8c06dfb69595.jpg</v>
+      </c>
+      <c r="L28" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2093783628</v>
+        <v>634418216186000</v>
       </c>
       <c r="B29">
-        <v>7039322122</v>
+        <v>2894022197</v>
       </c>
       <c r="C29">
-        <v>86275777516</v>
-      </c>
-      <c r="D29" t="str">
-        <v>8361</v>
-      </c>
-      <c r="E29" t="str">
-        <v>8361-DeepBlue-39</v>
+        <v>38836671694</v>
+      </c>
+      <c r="D29">
+        <v>18756223276</v>
+      </c>
+      <c r="E29">
+        <v>58825569339</v>
       </c>
       <c r="F29" t="str">
-        <v>深蓝</v>
+        <v>1262</v>
       </c>
       <c r="G29" t="str">
-        <v>39</v>
+        <v/>
       </c>
       <c r="H29" t="str">
-        <v>Dark Blue</v>
+        <v>粉色</v>
+      </c>
+      <c r="I29" t="str">
+        <v>28</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K29" t="str">
+        <v>https://img.kwcdn.com/product/fancy/05e9a563-c5e8-46f9-b8b8-6a8a1ab72e24.jpg</v>
+      </c>
+      <c r="L29" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2093783628</v>
+        <v>634418216186000</v>
       </c>
       <c r="B30">
-        <v>8660940603</v>
+        <v>2894022197</v>
       </c>
       <c r="C30">
-        <v>55436086470</v>
-      </c>
-      <c r="D30" t="str">
-        <v>8361</v>
-      </c>
-      <c r="E30" t="str">
-        <v>8361-BlackGreen-39</v>
+        <v>38836671694</v>
+      </c>
+      <c r="D30">
+        <v>11278821152</v>
+      </c>
+      <c r="E30">
+        <v>85254276608</v>
       </c>
       <c r="F30" t="str">
-        <v>黑绿</v>
+        <v>1262</v>
       </c>
       <c r="G30" t="str">
-        <v>39</v>
+        <v/>
       </c>
       <c r="H30" t="str">
-        <v>Dark Green color</v>
+        <v>紫色</v>
+      </c>
+      <c r="I30" t="str">
+        <v>34</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="K30" t="str">
+        <v>https://img.kwcdn.com/product/fancy/8078710b-5150-410f-9a69-8c06dfb69595.jpg</v>
+      </c>
+      <c r="L30" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2093783628</v>
+        <v>634418216186000</v>
       </c>
       <c r="B31">
-        <v>6032356330</v>
+        <v>2894022197</v>
       </c>
       <c r="C31">
-        <v>38162115321</v>
-      </c>
-      <c r="D31" t="str">
-        <v>8361</v>
-      </c>
-      <c r="E31" t="str">
-        <v>8361-DeepBlue-33</v>
+        <v>38836671694</v>
+      </c>
+      <c r="D31">
+        <v>16479926803</v>
+      </c>
+      <c r="E31">
+        <v>26278872152</v>
       </c>
       <c r="F31" t="str">
-        <v>深蓝</v>
+        <v>1262</v>
       </c>
       <c r="G31" t="str">
-        <v>33</v>
+        <v/>
       </c>
       <c r="H31" t="str">
-        <v>Dark Blue</v>
+        <v>紫色</v>
+      </c>
+      <c r="I31" t="str">
+        <v>36</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="K31" t="str">
+        <v>https://img.kwcdn.com/product/fancy/8078710b-5150-410f-9a69-8c06dfb69595.jpg</v>
+      </c>
+      <c r="L31" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2093783628</v>
+        <v>634418216186000</v>
       </c>
       <c r="B32">
-        <v>3658859636</v>
+        <v>2894022197</v>
       </c>
       <c r="C32">
-        <v>61994769808</v>
-      </c>
-      <c r="D32" t="str">
-        <v>8361</v>
-      </c>
-      <c r="E32" t="str">
-        <v>8361-DeepBlue-34</v>
+        <v>38836671694</v>
+      </c>
+      <c r="D32">
+        <v>32857180350</v>
+      </c>
+      <c r="E32">
+        <v>58220729389</v>
       </c>
       <c r="F32" t="str">
-        <v>深蓝</v>
+        <v>1262</v>
       </c>
       <c r="G32" t="str">
-        <v>34</v>
+        <v/>
       </c>
       <c r="H32" t="str">
-        <v>Dark Blue</v>
+        <v>粉色</v>
+      </c>
+      <c r="I32" t="str">
+        <v>36</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K32" t="str">
+        <v>https://img.kwcdn.com/product/fancy/05e9a563-c5e8-46f9-b8b8-6a8a1ab72e24.jpg</v>
+      </c>
+      <c r="L32" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2093783628</v>
+        <v>634418216186000</v>
       </c>
       <c r="B33">
-        <v>6714642041</v>
+        <v>2894022197</v>
       </c>
       <c r="C33">
-        <v>42259223394</v>
-      </c>
-      <c r="D33" t="str">
-        <v>8361</v>
-      </c>
-      <c r="E33" t="str">
-        <v>8361-DeepBlue-35</v>
+        <v>38836671694</v>
+      </c>
+      <c r="D33">
+        <v>15706539928</v>
+      </c>
+      <c r="E33">
+        <v>51772536519</v>
       </c>
       <c r="F33" t="str">
-        <v>深蓝</v>
+        <v>1262</v>
       </c>
       <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v>粉色</v>
+      </c>
+      <c r="I33" t="str">
         <v>35</v>
       </c>
-      <c r="H33" t="str">
-        <v>Dark Blue</v>
+      <c r="J33" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K33" t="str">
+        <v>https://img.kwcdn.com/product/fancy/05e9a563-c5e8-46f9-b8b8-6a8a1ab72e24.jpg</v>
+      </c>
+      <c r="L33" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>2093783628</v>
+        <v>634418216186000</v>
       </c>
       <c r="B34">
-        <v>3939797434</v>
+        <v>2894022197</v>
       </c>
       <c r="C34">
-        <v>73409502643</v>
-      </c>
-      <c r="D34" t="str">
-        <v>8361</v>
-      </c>
-      <c r="E34" t="str">
-        <v>8361-DeepBlue-29</v>
+        <v>38836671694</v>
+      </c>
+      <c r="D34">
+        <v>73506132619</v>
+      </c>
+      <c r="E34">
+        <v>82007043185</v>
       </c>
       <c r="F34" t="str">
-        <v>深蓝</v>
+        <v>1262</v>
       </c>
       <c r="G34" t="str">
-        <v>29</v>
+        <v/>
       </c>
       <c r="H34" t="str">
-        <v>Dark Blue</v>
+        <v>粉色</v>
+      </c>
+      <c r="I34" t="str">
+        <v>31</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K34" t="str">
+        <v>https://img.kwcdn.com/product/fancy/05e9a563-c5e8-46f9-b8b8-6a8a1ab72e24.jpg</v>
+      </c>
+      <c r="L34" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2093783628</v>
+        <v>634418216186000</v>
       </c>
       <c r="B35">
-        <v>5287080745</v>
+        <v>2894022197</v>
       </c>
       <c r="C35">
-        <v>61650764626</v>
-      </c>
-      <c r="D35" t="str">
-        <v>8361</v>
-      </c>
-      <c r="E35" t="str">
-        <v>8361-BlackGreen-34</v>
+        <v>38836671694</v>
+      </c>
+      <c r="D35">
+        <v>93277314850</v>
+      </c>
+      <c r="E35">
+        <v>82784221796</v>
       </c>
       <c r="F35" t="str">
-        <v>黑绿</v>
+        <v>1262</v>
       </c>
       <c r="G35" t="str">
-        <v>34</v>
+        <v/>
       </c>
       <c r="H35" t="str">
-        <v>Dark Green color</v>
+        <v>紫色</v>
+      </c>
+      <c r="I35" t="str">
+        <v>37</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="K35" t="str">
+        <v>https://img.kwcdn.com/product/fancy/8078710b-5150-410f-9a69-8c06dfb69595.jpg</v>
+      </c>
+      <c r="L35" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>2093783628</v>
+        <v>634418216186000</v>
       </c>
       <c r="B36">
-        <v>6422662423</v>
+        <v>2894022197</v>
       </c>
       <c r="C36">
-        <v>47961308202</v>
-      </c>
-      <c r="D36" t="str">
-        <v>8361</v>
-      </c>
-      <c r="E36" t="str">
-        <v>8361-BlackGreen-29</v>
+        <v>38836671694</v>
+      </c>
+      <c r="D36">
+        <v>85904709657</v>
+      </c>
+      <c r="E36">
+        <v>88180745603</v>
       </c>
       <c r="F36" t="str">
-        <v>黑绿</v>
+        <v>1262</v>
       </c>
       <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v>紫色</v>
+      </c>
+      <c r="I36" t="str">
         <v>29</v>
       </c>
-      <c r="H36" t="str">
-        <v>Dark Green color</v>
+      <c r="J36" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="K36" t="str">
+        <v>https://img.kwcdn.com/product/fancy/8078710b-5150-410f-9a69-8c06dfb69595.jpg</v>
+      </c>
+      <c r="L36" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2093783628</v>
+        <v>634418216186000</v>
       </c>
       <c r="B37">
-        <v>1736823180</v>
+        <v>2894022197</v>
       </c>
       <c r="C37">
-        <v>77834477443</v>
-      </c>
-      <c r="D37" t="str">
-        <v>8361</v>
-      </c>
-      <c r="E37" t="str">
-        <v>8361-DeepBlue-30</v>
+        <v>38836671694</v>
+      </c>
+      <c r="D37">
+        <v>49468429539</v>
+      </c>
+      <c r="E37">
+        <v>54549877503</v>
       </c>
       <c r="F37" t="str">
-        <v>深蓝</v>
+        <v>1262</v>
       </c>
       <c r="G37" t="str">
-        <v>30</v>
+        <v/>
       </c>
       <c r="H37" t="str">
-        <v>Dark Blue</v>
+        <v>紫色</v>
+      </c>
+      <c r="I37" t="str">
+        <v>38</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="K37" t="str">
+        <v>https://img.kwcdn.com/product/fancy/8078710b-5150-410f-9a69-8c06dfb69595.jpg</v>
+      </c>
+      <c r="L37" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>2093783628</v>
+        <v>634418216186000</v>
       </c>
       <c r="B38">
-        <v>7289694377</v>
+        <v>2894022197</v>
       </c>
       <c r="C38">
-        <v>75004253067</v>
-      </c>
-      <c r="D38" t="str">
-        <v>8361</v>
-      </c>
-      <c r="E38" t="str">
-        <v>8361-DeepBlue-31</v>
+        <v>38836671694</v>
+      </c>
+      <c r="D38">
+        <v>84574858195</v>
+      </c>
+      <c r="E38">
+        <v>44186725566</v>
       </c>
       <c r="F38" t="str">
-        <v>深蓝</v>
+        <v>1262</v>
       </c>
       <c r="G38" t="str">
-        <v>31</v>
+        <v/>
       </c>
       <c r="H38" t="str">
-        <v>Dark Blue</v>
+        <v>紫色</v>
+      </c>
+      <c r="I38" t="str">
+        <v>32</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="K38" t="str">
+        <v>https://img.kwcdn.com/product/fancy/8078710b-5150-410f-9a69-8c06dfb69595.jpg</v>
+      </c>
+      <c r="L38" t="str">
+        <v>女童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>634418216186000</v>
+      </c>
+      <c r="B39">
+        <v>248751894</v>
+      </c>
+      <c r="C39">
         <v>2093783628</v>
       </c>
-      <c r="B39">
-        <v>8946344394</v>
-      </c>
-      <c r="C39">
-        <v>37418476011</v>
-      </c>
-      <c r="D39" t="str">
+      <c r="D39">
+        <v>7039322122</v>
+      </c>
+      <c r="E39">
+        <v>86275777516</v>
+      </c>
+      <c r="F39" t="str">
         <v>8361</v>
       </c>
-      <c r="E39" t="str">
-        <v>8361-BlackGreen-37</v>
-      </c>
-      <c r="F39" t="str">
-        <v>黑绿</v>
-      </c>
       <c r="G39" t="str">
-        <v>37</v>
+        <v>8361-DeepBlue-39</v>
       </c>
       <c r="H39" t="str">
-        <v>Dark Green color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I39" t="str">
+        <v>39</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K39" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L39" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>634418216186000</v>
+      </c>
+      <c r="B40">
+        <v>248751894</v>
+      </c>
+      <c r="C40">
         <v>2093783628</v>
       </c>
-      <c r="B40">
-        <v>4297643161</v>
-      </c>
-      <c r="C40">
-        <v>99934685919</v>
-      </c>
-      <c r="D40" t="str">
+      <c r="D40">
+        <v>8660940603</v>
+      </c>
+      <c r="E40">
+        <v>55436086470</v>
+      </c>
+      <c r="F40" t="str">
         <v>8361</v>
       </c>
-      <c r="E40" t="str">
-        <v>8361-BlackGreen-36</v>
-      </c>
-      <c r="F40" t="str">
+      <c r="G40" t="str">
+        <v>8361-BlackGreen-39</v>
+      </c>
+      <c r="H40" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G40" t="str">
-        <v>36</v>
-      </c>
-      <c r="H40" t="str">
+      <c r="I40" t="str">
+        <v>39</v>
+      </c>
+      <c r="J40" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K40" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L40" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>634418216186000</v>
+      </c>
+      <c r="B41">
+        <v>248751894</v>
+      </c>
+      <c r="C41">
         <v>2093783628</v>
       </c>
-      <c r="B41">
-        <v>9186575112</v>
-      </c>
-      <c r="C41">
-        <v>47950204362</v>
-      </c>
-      <c r="D41" t="str">
+      <c r="D41">
+        <v>6032356330</v>
+      </c>
+      <c r="E41">
+        <v>38162115321</v>
+      </c>
+      <c r="F41" t="str">
         <v>8361</v>
       </c>
-      <c r="E41" t="str">
-        <v>8361-DeepBlue-28</v>
-      </c>
-      <c r="F41" t="str">
+      <c r="G41" t="str">
+        <v>8361-DeepBlue-33</v>
+      </c>
+      <c r="H41" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G41" t="str">
-        <v>28</v>
-      </c>
-      <c r="H41" t="str">
+      <c r="I41" t="str">
+        <v>33</v>
+      </c>
+      <c r="J41" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K41" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L41" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>634418216186000</v>
+      </c>
+      <c r="B42">
+        <v>248751894</v>
+      </c>
+      <c r="C42">
         <v>2093783628</v>
       </c>
-      <c r="B42">
-        <v>5912934159</v>
-      </c>
-      <c r="C42">
-        <v>15992572568</v>
-      </c>
-      <c r="D42" t="str">
+      <c r="D42">
+        <v>3658859636</v>
+      </c>
+      <c r="E42">
+        <v>61994769808</v>
+      </c>
+      <c r="F42" t="str">
         <v>8361</v>
       </c>
-      <c r="E42" t="str">
-        <v>8361-BlackGreen-38</v>
-      </c>
-      <c r="F42" t="str">
-        <v>黑绿</v>
-      </c>
       <c r="G42" t="str">
-        <v>38</v>
+        <v>8361-DeepBlue-34</v>
       </c>
       <c r="H42" t="str">
-        <v>Dark Green color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I42" t="str">
+        <v>34</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K42" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L42" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>634418216186000</v>
+      </c>
+      <c r="B43">
+        <v>248751894</v>
+      </c>
+      <c r="C43">
         <v>2093783628</v>
       </c>
-      <c r="B43">
-        <v>5392840688</v>
-      </c>
-      <c r="C43">
-        <v>76625148873</v>
-      </c>
-      <c r="D43" t="str">
+      <c r="D43">
+        <v>6714642041</v>
+      </c>
+      <c r="E43">
+        <v>42259223394</v>
+      </c>
+      <c r="F43" t="str">
         <v>8361</v>
       </c>
-      <c r="E43" t="str">
-        <v>8361-DeepBlue-36</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="G43" t="str">
+        <v>8361-DeepBlue-35</v>
+      </c>
+      <c r="H43" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G43" t="str">
-        <v>36</v>
-      </c>
-      <c r="H43" t="str">
+      <c r="I43" t="str">
+        <v>35</v>
+      </c>
+      <c r="J43" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K43" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L43" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <v>634418216186000</v>
+      </c>
+      <c r="B44">
+        <v>248751894</v>
+      </c>
+      <c r="C44">
         <v>2093783628</v>
       </c>
-      <c r="B44">
-        <v>4254777907</v>
-      </c>
-      <c r="C44">
-        <v>91009121904</v>
-      </c>
-      <c r="D44" t="str">
+      <c r="D44">
+        <v>3939797434</v>
+      </c>
+      <c r="E44">
+        <v>73409502643</v>
+      </c>
+      <c r="F44" t="str">
         <v>8361</v>
       </c>
-      <c r="E44" t="str">
-        <v>8361-BlackGreen-31</v>
-      </c>
-      <c r="F44" t="str">
-        <v>黑绿</v>
-      </c>
       <c r="G44" t="str">
-        <v>31</v>
+        <v>8361-DeepBlue-29</v>
       </c>
       <c r="H44" t="str">
-        <v>Dark Green color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I44" t="str">
+        <v>29</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K44" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L44" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>634418216186000</v>
+      </c>
+      <c r="B45">
+        <v>248751894</v>
+      </c>
+      <c r="C45">
         <v>2093783628</v>
       </c>
-      <c r="B45">
-        <v>3042626272</v>
-      </c>
-      <c r="C45">
-        <v>93923024941</v>
-      </c>
-      <c r="D45" t="str">
+      <c r="D45">
+        <v>5287080745</v>
+      </c>
+      <c r="E45">
+        <v>61650764626</v>
+      </c>
+      <c r="F45" t="str">
         <v>8361</v>
       </c>
-      <c r="E45" t="str">
-        <v>8361-DeepBlue-38</v>
-      </c>
-      <c r="F45" t="str">
-        <v>深蓝</v>
-      </c>
       <c r="G45" t="str">
-        <v>38</v>
+        <v>8361-BlackGreen-34</v>
       </c>
       <c r="H45" t="str">
-        <v>Dark Blue</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I45" t="str">
+        <v>34</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K45" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L45" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
+        <v>634418216186000</v>
+      </c>
+      <c r="B46">
+        <v>248751894</v>
+      </c>
+      <c r="C46">
         <v>2093783628</v>
       </c>
-      <c r="B46">
-        <v>3660687382</v>
-      </c>
-      <c r="C46">
-        <v>29901004154</v>
-      </c>
-      <c r="D46" t="str">
+      <c r="D46">
+        <v>6422662423</v>
+      </c>
+      <c r="E46">
+        <v>47961308202</v>
+      </c>
+      <c r="F46" t="str">
         <v>8361</v>
       </c>
-      <c r="E46" t="str">
-        <v>8361-BlackGreen-30</v>
-      </c>
-      <c r="F46" t="str">
+      <c r="G46" t="str">
+        <v>8361-BlackGreen-29</v>
+      </c>
+      <c r="H46" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G46" t="str">
-        <v>30</v>
-      </c>
-      <c r="H46" t="str">
+      <c r="I46" t="str">
+        <v>29</v>
+      </c>
+      <c r="J46" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K46" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L46" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
+        <v>634418216186000</v>
+      </c>
+      <c r="B47">
+        <v>248751894</v>
+      </c>
+      <c r="C47">
         <v>2093783628</v>
       </c>
-      <c r="B47">
-        <v>5663438497</v>
-      </c>
-      <c r="C47">
-        <v>17244968614</v>
-      </c>
-      <c r="D47" t="str">
+      <c r="D47">
+        <v>1736823180</v>
+      </c>
+      <c r="E47">
+        <v>77834477443</v>
+      </c>
+      <c r="F47" t="str">
         <v>8361</v>
       </c>
-      <c r="E47" t="str">
-        <v>8361-BlackGreen-32</v>
-      </c>
-      <c r="F47" t="str">
-        <v>黑绿</v>
-      </c>
       <c r="G47" t="str">
-        <v>32</v>
+        <v>8361-DeepBlue-30</v>
       </c>
       <c r="H47" t="str">
-        <v>Dark Green color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I47" t="str">
+        <v>30</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K47" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L47" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>634418216186000</v>
+      </c>
+      <c r="B48">
+        <v>248751894</v>
+      </c>
+      <c r="C48">
         <v>2093783628</v>
       </c>
-      <c r="B48">
-        <v>7014282392</v>
-      </c>
-      <c r="C48">
-        <v>56969174247</v>
-      </c>
-      <c r="D48" t="str">
+      <c r="D48">
+        <v>7289694377</v>
+      </c>
+      <c r="E48">
+        <v>75004253067</v>
+      </c>
+      <c r="F48" t="str">
         <v>8361</v>
       </c>
-      <c r="E48" t="str">
-        <v>8361-BlackGreen-28</v>
-      </c>
-      <c r="F48" t="str">
-        <v>黑绿</v>
-      </c>
       <c r="G48" t="str">
-        <v>28</v>
+        <v>8361-DeepBlue-31</v>
       </c>
       <c r="H48" t="str">
-        <v>Dark Green color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I48" t="str">
+        <v>31</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K48" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L48" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
+        <v>634418216186000</v>
+      </c>
+      <c r="B49">
+        <v>248751894</v>
+      </c>
+      <c r="C49">
         <v>2093783628</v>
       </c>
-      <c r="B49">
-        <v>1295701735</v>
-      </c>
-      <c r="C49">
-        <v>51417085642</v>
-      </c>
-      <c r="D49" t="str">
+      <c r="D49">
+        <v>8946344394</v>
+      </c>
+      <c r="E49">
+        <v>37418476011</v>
+      </c>
+      <c r="F49" t="str">
         <v>8361</v>
       </c>
-      <c r="E49" t="str">
-        <v>8361-BlackGreen-35</v>
-      </c>
-      <c r="F49" t="str">
+      <c r="G49" t="str">
+        <v>8361-BlackGreen-37</v>
+      </c>
+      <c r="H49" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G49" t="str">
-        <v>35</v>
-      </c>
-      <c r="H49" t="str">
+      <c r="I49" t="str">
+        <v>37</v>
+      </c>
+      <c r="J49" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K49" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L49" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
+        <v>634418216186000</v>
+      </c>
+      <c r="B50">
+        <v>248751894</v>
+      </c>
+      <c r="C50">
         <v>2093783628</v>
       </c>
-      <c r="B50">
-        <v>8179415128</v>
-      </c>
-      <c r="C50">
-        <v>50885829442</v>
-      </c>
-      <c r="D50" t="str">
+      <c r="D50">
+        <v>4297643161</v>
+      </c>
+      <c r="E50">
+        <v>99934685919</v>
+      </c>
+      <c r="F50" t="str">
         <v>8361</v>
       </c>
-      <c r="E50" t="str">
-        <v>8361-DeepBlue-32</v>
-      </c>
-      <c r="F50" t="str">
-        <v>深蓝</v>
-      </c>
       <c r="G50" t="str">
-        <v>32</v>
+        <v>8361-BlackGreen-36</v>
       </c>
       <c r="H50" t="str">
-        <v>Dark Blue</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I50" t="str">
+        <v>36</v>
+      </c>
+      <c r="J50" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K50" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L50" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
+        <v>634418216186000</v>
+      </c>
+      <c r="B51">
+        <v>248751894</v>
+      </c>
+      <c r="C51">
         <v>2093783628</v>
       </c>
-      <c r="B51">
-        <v>6090508623</v>
-      </c>
-      <c r="C51">
-        <v>35312325454</v>
-      </c>
-      <c r="D51" t="str">
+      <c r="D51">
+        <v>9186575112</v>
+      </c>
+      <c r="E51">
+        <v>47950204362</v>
+      </c>
+      <c r="F51" t="str">
         <v>8361</v>
       </c>
-      <c r="E51" t="str">
-        <v>8361-BlackGreen-33</v>
-      </c>
-      <c r="F51" t="str">
-        <v>黑绿</v>
-      </c>
       <c r="G51" t="str">
-        <v>33</v>
+        <v>8361-DeepBlue-28</v>
       </c>
       <c r="H51" t="str">
-        <v>Dark Green color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I51" t="str">
+        <v>28</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K51" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L51" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>634418216186000</v>
+      </c>
+      <c r="B52">
+        <v>248751894</v>
+      </c>
+      <c r="C52">
         <v>2093783628</v>
       </c>
-      <c r="B52">
-        <v>3698034882</v>
-      </c>
-      <c r="C52">
-        <v>25376107553</v>
-      </c>
-      <c r="D52" t="str">
+      <c r="D52">
+        <v>5912934159</v>
+      </c>
+      <c r="E52">
+        <v>15992572568</v>
+      </c>
+      <c r="F52" t="str">
         <v>8361</v>
       </c>
-      <c r="E52" t="str">
-        <v>8361-DeepBlue-37</v>
-      </c>
-      <c r="F52" t="str">
-        <v>深蓝</v>
-      </c>
       <c r="G52" t="str">
-        <v>37</v>
+        <v>8361-BlackGreen-38</v>
       </c>
       <c r="H52" t="str">
-        <v>Dark Blue</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I52" t="str">
+        <v>38</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K52" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L52" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1239789710</v>
+        <v>634418216186000</v>
       </c>
       <c r="B53">
-        <v>6855110324</v>
+        <v>248751894</v>
       </c>
       <c r="C53">
-        <v>77199911352</v>
-      </c>
-      <c r="D53" t="str">
-        <v>367</v>
-      </c>
-      <c r="E53" t="str">
-        <v>367FENHONG-30-31</v>
+        <v>2093783628</v>
+      </c>
+      <c r="D53">
+        <v>5392840688</v>
+      </c>
+      <c r="E53">
+        <v>76625148873</v>
       </c>
       <c r="F53" t="str">
-        <v>粉红色</v>
+        <v>8361</v>
       </c>
       <c r="G53" t="str">
-        <v>30-31</v>
+        <v>8361-DeepBlue-36</v>
       </c>
       <c r="H53" t="str">
-        <v>Pink Color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I53" t="str">
+        <v>36</v>
+      </c>
+      <c r="J53" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K53" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L53" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1239789710</v>
+        <v>634418216186000</v>
       </c>
       <c r="B54">
-        <v>9877630470</v>
+        <v>248751894</v>
       </c>
       <c r="C54">
-        <v>69880075190</v>
-      </c>
-      <c r="D54" t="str">
-        <v>367</v>
-      </c>
-      <c r="E54" t="str">
-        <v>367FENHONG-26-27</v>
+        <v>2093783628</v>
+      </c>
+      <c r="D54">
+        <v>4254777907</v>
+      </c>
+      <c r="E54">
+        <v>91009121904</v>
       </c>
       <c r="F54" t="str">
-        <v>粉红色</v>
+        <v>8361</v>
       </c>
       <c r="G54" t="str">
-        <v>26-27</v>
+        <v>8361-BlackGreen-31</v>
       </c>
       <c r="H54" t="str">
-        <v>Pink Color</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I54" t="str">
+        <v>31</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K54" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L54" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1239789710</v>
+        <v>634418216186000</v>
       </c>
       <c r="B55">
-        <v>5149208433</v>
+        <v>248751894</v>
       </c>
       <c r="C55">
-        <v>10975113026</v>
-      </c>
-      <c r="D55" t="str">
-        <v>367</v>
-      </c>
-      <c r="E55" t="str">
-        <v>367BAI-32-33</v>
+        <v>2093783628</v>
+      </c>
+      <c r="D55">
+        <v>3042626272</v>
+      </c>
+      <c r="E55">
+        <v>93923024941</v>
       </c>
       <c r="F55" t="str">
-        <v>白色</v>
+        <v>8361</v>
       </c>
       <c r="G55" t="str">
-        <v>32-33</v>
+        <v>8361-DeepBlue-38</v>
       </c>
       <c r="H55" t="str">
-        <v>White</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I55" t="str">
+        <v>38</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K55" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L55" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1239789710</v>
+        <v>634418216186000</v>
       </c>
       <c r="B56">
-        <v>3248941914</v>
+        <v>248751894</v>
       </c>
       <c r="C56">
-        <v>84925494475</v>
-      </c>
-      <c r="D56" t="str">
-        <v>367</v>
-      </c>
-      <c r="E56" t="str">
-        <v>367FENHONG-24-25</v>
+        <v>2093783628</v>
+      </c>
+      <c r="D56">
+        <v>3660687382</v>
+      </c>
+      <c r="E56">
+        <v>29901004154</v>
       </c>
       <c r="F56" t="str">
-        <v>粉红色</v>
+        <v>8361</v>
       </c>
       <c r="G56" t="str">
-        <v>24-25</v>
+        <v>8361-BlackGreen-30</v>
       </c>
       <c r="H56" t="str">
-        <v>Pink Color</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I56" t="str">
+        <v>30</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K56" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L56" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1239789710</v>
+        <v>634418216186000</v>
       </c>
       <c r="B57">
-        <v>1948557391</v>
+        <v>248751894</v>
       </c>
       <c r="C57">
-        <v>54971389781</v>
-      </c>
-      <c r="D57" t="str">
-        <v>367</v>
-      </c>
-      <c r="E57" t="str">
-        <v>367BAI-30-31</v>
+        <v>2093783628</v>
+      </c>
+      <c r="D57">
+        <v>5663438497</v>
+      </c>
+      <c r="E57">
+        <v>17244968614</v>
       </c>
       <c r="F57" t="str">
-        <v>白色</v>
+        <v>8361</v>
       </c>
       <c r="G57" t="str">
-        <v>30-31</v>
+        <v>8361-BlackGreen-32</v>
       </c>
       <c r="H57" t="str">
-        <v>White</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I57" t="str">
+        <v>32</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K57" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L57" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1239789710</v>
+        <v>634418216186000</v>
       </c>
       <c r="B58">
-        <v>9217164411</v>
+        <v>248751894</v>
       </c>
       <c r="C58">
-        <v>36997792980</v>
-      </c>
-      <c r="D58" t="str">
-        <v>367</v>
-      </c>
-      <c r="E58" t="str">
-        <v>367BAOLAN-28-29</v>
+        <v>2093783628</v>
+      </c>
+      <c r="D58">
+        <v>7014282392</v>
+      </c>
+      <c r="E58">
+        <v>56969174247</v>
       </c>
       <c r="F58" t="str">
-        <v>宝蓝色</v>
+        <v>8361</v>
       </c>
       <c r="G58" t="str">
-        <v>28-29</v>
+        <v>8361-BlackGreen-28</v>
       </c>
       <c r="H58" t="str">
-        <v>Royal Blue</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I58" t="str">
+        <v>28</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K58" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L58" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1239789710</v>
+        <v>634418216186000</v>
       </c>
       <c r="B59">
-        <v>4648940890</v>
+        <v>248751894</v>
       </c>
       <c r="C59">
-        <v>23701451292</v>
-      </c>
-      <c r="D59" t="str">
-        <v>367</v>
-      </c>
-      <c r="E59" t="str">
-        <v>367BAOLAN-32-33</v>
+        <v>2093783628</v>
+      </c>
+      <c r="D59">
+        <v>1295701735</v>
+      </c>
+      <c r="E59">
+        <v>51417085642</v>
       </c>
       <c r="F59" t="str">
-        <v>宝蓝色</v>
+        <v>8361</v>
       </c>
       <c r="G59" t="str">
-        <v>32-33</v>
+        <v>8361-BlackGreen-35</v>
       </c>
       <c r="H59" t="str">
-        <v>Royal Blue</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I59" t="str">
+        <v>35</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K59" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L59" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1239789710</v>
+        <v>634418216186000</v>
       </c>
       <c r="B60">
-        <v>8582624561</v>
+        <v>248751894</v>
       </c>
       <c r="C60">
-        <v>21534810633</v>
-      </c>
-      <c r="D60" t="str">
-        <v>367</v>
-      </c>
-      <c r="E60" t="str">
-        <v>367FENHONG-34-35</v>
+        <v>2093783628</v>
+      </c>
+      <c r="D60">
+        <v>8179415128</v>
+      </c>
+      <c r="E60">
+        <v>50885829442</v>
       </c>
       <c r="F60" t="str">
-        <v>粉红色</v>
+        <v>8361</v>
       </c>
       <c r="G60" t="str">
-        <v>34-35</v>
+        <v>8361-DeepBlue-32</v>
       </c>
       <c r="H60" t="str">
-        <v>Pink Color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I60" t="str">
+        <v>32</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K60" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L60" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1239789710</v>
+        <v>634418216186000</v>
       </c>
       <c r="B61">
-        <v>4761307830</v>
+        <v>248751894</v>
       </c>
       <c r="C61">
-        <v>85474338604</v>
-      </c>
-      <c r="D61" t="str">
-        <v>367</v>
-      </c>
-      <c r="E61" t="str">
-        <v>367FENHONG-28-29</v>
+        <v>2093783628</v>
+      </c>
+      <c r="D61">
+        <v>6090508623</v>
+      </c>
+      <c r="E61">
+        <v>35312325454</v>
       </c>
       <c r="F61" t="str">
-        <v>粉红色</v>
+        <v>8361</v>
       </c>
       <c r="G61" t="str">
-        <v>28-29</v>
+        <v>8361-BlackGreen-33</v>
       </c>
       <c r="H61" t="str">
-        <v>Pink Color</v>
+        <v>黑绿</v>
+      </c>
+      <c r="I61" t="str">
+        <v>33</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Dark Green color</v>
+      </c>
+      <c r="K61" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c0abcaa2-3797-42e2-bec8-f2f157c8462c.jpg</v>
+      </c>
+      <c r="L61" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1239789710</v>
+        <v>634418216186000</v>
       </c>
       <c r="B62">
-        <v>1623624014</v>
+        <v>248751894</v>
       </c>
       <c r="C62">
-        <v>97265164139</v>
-      </c>
-      <c r="D62" t="str">
-        <v>367</v>
-      </c>
-      <c r="E62" t="str">
-        <v>367FENHONG-36-37</v>
+        <v>2093783628</v>
+      </c>
+      <c r="D62">
+        <v>3698034882</v>
+      </c>
+      <c r="E62">
+        <v>25376107553</v>
       </c>
       <c r="F62" t="str">
-        <v>粉红色</v>
+        <v>8361</v>
       </c>
       <c r="G62" t="str">
-        <v>36-37</v>
+        <v>8361-DeepBlue-37</v>
       </c>
       <c r="H62" t="str">
-        <v>Pink Color</v>
+        <v>深蓝</v>
+      </c>
+      <c r="I62" t="str">
+        <v>37</v>
+      </c>
+      <c r="J62" t="str">
+        <v>Dark Blue</v>
+      </c>
+      <c r="K62" t="str">
+        <v>https://img.kwcdn.com/product/fancy/a98eb26e-a0b0-474d-a478-cff5c6de57ea.jpg</v>
+      </c>
+      <c r="L62" t="str">
+        <v>男童运动鞋</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
+        <v>634418216186000</v>
+      </c>
+      <c r="B63">
+        <v>191085343</v>
+      </c>
+      <c r="C63">
         <v>1239789710</v>
       </c>
-      <c r="B63">
-        <v>7216342205</v>
-      </c>
-      <c r="C63">
-        <v>13203813063</v>
-      </c>
-      <c r="D63" t="str">
+      <c r="D63">
+        <v>6855110324</v>
+      </c>
+      <c r="E63">
+        <v>77199911352</v>
+      </c>
+      <c r="F63" t="str">
         <v>367</v>
       </c>
-      <c r="E63" t="str">
-        <v>367BAI-28-29</v>
-      </c>
-      <c r="F63" t="str">
-        <v>白色</v>
-      </c>
       <c r="G63" t="str">
-        <v>28-29</v>
+        <v>367FENHONG-30-31</v>
       </c>
       <c r="H63" t="str">
-        <v>White</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I63" t="str">
+        <v>30-31</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K63" t="str">
+        <v>https://img.kwcdn.com/product/fancy/4de24a98-474b-4277-aad3-8faa48e4187f.jpg</v>
+      </c>
+      <c r="L63" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
+        <v>634418216186000</v>
+      </c>
+      <c r="B64">
+        <v>191085343</v>
+      </c>
+      <c r="C64">
         <v>1239789710</v>
       </c>
-      <c r="B64">
-        <v>1317901023</v>
-      </c>
-      <c r="C64">
-        <v>34628526711</v>
-      </c>
-      <c r="D64" t="str">
+      <c r="D64">
+        <v>9877630470</v>
+      </c>
+      <c r="E64">
+        <v>69880075190</v>
+      </c>
+      <c r="F64" t="str">
         <v>367</v>
       </c>
-      <c r="E64" t="str">
-        <v>367BAOLAN-24-25</v>
-      </c>
-      <c r="F64" t="str">
-        <v>宝蓝色</v>
-      </c>
       <c r="G64" t="str">
-        <v>24-25</v>
+        <v>367FENHONG-26-27</v>
       </c>
       <c r="H64" t="str">
-        <v>Royal Blue</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I64" t="str">
+        <v>26-27</v>
+      </c>
+      <c r="J64" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K64" t="str">
+        <v>https://img.kwcdn.com/product/fancy/4de24a98-474b-4277-aad3-8faa48e4187f.jpg</v>
+      </c>
+      <c r="L64" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
+        <v>634418216186000</v>
+      </c>
+      <c r="B65">
+        <v>191085343</v>
+      </c>
+      <c r="C65">
         <v>1239789710</v>
       </c>
-      <c r="B65">
-        <v>2803569438</v>
-      </c>
-      <c r="C65">
-        <v>49845649808</v>
-      </c>
-      <c r="D65" t="str">
+      <c r="D65">
+        <v>5149208433</v>
+      </c>
+      <c r="E65">
+        <v>10975113026</v>
+      </c>
+      <c r="F65" t="str">
         <v>367</v>
       </c>
-      <c r="E65" t="str">
-        <v>367BAOLAN-30-31</v>
-      </c>
-      <c r="F65" t="str">
-        <v>宝蓝色</v>
-      </c>
       <c r="G65" t="str">
-        <v>30-31</v>
+        <v>367BAI-32-33</v>
       </c>
       <c r="H65" t="str">
-        <v>Royal Blue</v>
+        <v>白色</v>
+      </c>
+      <c r="I65" t="str">
+        <v>32-33</v>
+      </c>
+      <c r="J65" t="str">
+        <v>White</v>
+      </c>
+      <c r="K65" t="str">
+        <v>https://img.kwcdn.com/product/fancy/401278ff-a538-4734-bd84-96e83204ab41.jpg</v>
+      </c>
+      <c r="L65" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
+        <v>634418216186000</v>
+      </c>
+      <c r="B66">
+        <v>191085343</v>
+      </c>
+      <c r="C66">
         <v>1239789710</v>
       </c>
-      <c r="B66">
-        <v>9957335252</v>
-      </c>
-      <c r="C66">
-        <v>21488751462</v>
-      </c>
-      <c r="D66" t="str">
+      <c r="D66">
+        <v>3248941914</v>
+      </c>
+      <c r="E66">
+        <v>84925494475</v>
+      </c>
+      <c r="F66" t="str">
         <v>367</v>
       </c>
-      <c r="E66" t="str">
-        <v>367BAOLAN36-37</v>
-      </c>
-      <c r="F66" t="str">
-        <v>宝蓝色</v>
-      </c>
       <c r="G66" t="str">
-        <v>36-37</v>
+        <v>367FENHONG-24-25</v>
       </c>
       <c r="H66" t="str">
-        <v>Royal Blue</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I66" t="str">
+        <v>24-25</v>
+      </c>
+      <c r="J66" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K66" t="str">
+        <v>https://img.kwcdn.com/product/fancy/4de24a98-474b-4277-aad3-8faa48e4187f.jpg</v>
+      </c>
+      <c r="L66" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
+        <v>634418216186000</v>
+      </c>
+      <c r="B67">
+        <v>191085343</v>
+      </c>
+      <c r="C67">
         <v>1239789710</v>
       </c>
-      <c r="B67">
-        <v>6229682460</v>
-      </c>
-      <c r="C67">
-        <v>51828004028</v>
-      </c>
-      <c r="D67" t="str">
+      <c r="D67">
+        <v>1948557391</v>
+      </c>
+      <c r="E67">
+        <v>54971389781</v>
+      </c>
+      <c r="F67" t="str">
         <v>367</v>
       </c>
-      <c r="E67" t="str">
-        <v>367BAI-26-27</v>
-      </c>
-      <c r="F67" t="str">
+      <c r="G67" t="str">
+        <v>367BAI-30-31</v>
+      </c>
+      <c r="H67" t="str">
         <v>白色</v>
       </c>
-      <c r="G67" t="str">
-        <v>26-27</v>
-      </c>
-      <c r="H67" t="str">
+      <c r="I67" t="str">
+        <v>30-31</v>
+      </c>
+      <c r="J67" t="str">
         <v>White</v>
+      </c>
+      <c r="K67" t="str">
+        <v>https://img.kwcdn.com/product/fancy/401278ff-a538-4734-bd84-96e83204ab41.jpg</v>
+      </c>
+      <c r="L67" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
+        <v>634418216186000</v>
+      </c>
+      <c r="B68">
+        <v>191085343</v>
+      </c>
+      <c r="C68">
         <v>1239789710</v>
       </c>
-      <c r="B68">
-        <v>3386292578</v>
-      </c>
-      <c r="C68">
-        <v>13409117375</v>
-      </c>
-      <c r="D68" t="str">
+      <c r="D68">
+        <v>9217164411</v>
+      </c>
+      <c r="E68">
+        <v>36997792980</v>
+      </c>
+      <c r="F68" t="str">
         <v>367</v>
       </c>
-      <c r="E68" t="str">
-        <v>367BAI-34-35</v>
-      </c>
-      <c r="F68" t="str">
-        <v>白色</v>
-      </c>
       <c r="G68" t="str">
-        <v>34-35</v>
+        <v>367BAOLAN-28-29</v>
       </c>
       <c r="H68" t="str">
-        <v>White</v>
+        <v>宝蓝色</v>
+      </c>
+      <c r="I68" t="str">
+        <v>28-29</v>
+      </c>
+      <c r="J68" t="str">
+        <v>Royal Blue</v>
+      </c>
+      <c r="K68" t="str">
+        <v>https://img.kwcdn.com/product/fancy/19f46941-3dcb-488c-9399-3442161f81df.jpg</v>
+      </c>
+      <c r="L68" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
+        <v>634418216186000</v>
+      </c>
+      <c r="B69">
+        <v>191085343</v>
+      </c>
+      <c r="C69">
         <v>1239789710</v>
       </c>
-      <c r="B69">
-        <v>1845680911</v>
-      </c>
-      <c r="C69">
-        <v>13442806672</v>
-      </c>
-      <c r="D69" t="str">
+      <c r="D69">
+        <v>4648940890</v>
+      </c>
+      <c r="E69">
+        <v>23701451292</v>
+      </c>
+      <c r="F69" t="str">
         <v>367</v>
       </c>
-      <c r="E69" t="str">
-        <v>367FENHONG-32-33</v>
-      </c>
-      <c r="F69" t="str">
-        <v>粉红色</v>
-      </c>
       <c r="G69" t="str">
+        <v>367BAOLAN-32-33</v>
+      </c>
+      <c r="H69" t="str">
+        <v>宝蓝色</v>
+      </c>
+      <c r="I69" t="str">
         <v>32-33</v>
       </c>
-      <c r="H69" t="str">
-        <v>Pink Color</v>
+      <c r="J69" t="str">
+        <v>Royal Blue</v>
+      </c>
+      <c r="K69" t="str">
+        <v>https://img.kwcdn.com/product/fancy/19f46941-3dcb-488c-9399-3442161f81df.jpg</v>
+      </c>
+      <c r="L69" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
+        <v>634418216186000</v>
+      </c>
+      <c r="B70">
+        <v>191085343</v>
+      </c>
+      <c r="C70">
         <v>1239789710</v>
       </c>
-      <c r="B70">
-        <v>3391531775</v>
-      </c>
-      <c r="C70">
-        <v>33515543078</v>
-      </c>
-      <c r="D70" t="str">
+      <c r="D70">
+        <v>8582624561</v>
+      </c>
+      <c r="E70">
+        <v>21534810633</v>
+      </c>
+      <c r="F70" t="str">
         <v>367</v>
       </c>
-      <c r="E70" t="str">
-        <v>367BAOLAN-26-27</v>
-      </c>
-      <c r="F70" t="str">
-        <v>宝蓝色</v>
-      </c>
       <c r="G70" t="str">
-        <v>26-27</v>
+        <v>367FENHONG-34-35</v>
       </c>
       <c r="H70" t="str">
-        <v>Royal Blue</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I70" t="str">
+        <v>34-35</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K70" t="str">
+        <v>https://img.kwcdn.com/product/fancy/4de24a98-474b-4277-aad3-8faa48e4187f.jpg</v>
+      </c>
+      <c r="L70" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
+        <v>634418216186000</v>
+      </c>
+      <c r="B71">
+        <v>191085343</v>
+      </c>
+      <c r="C71">
         <v>1239789710</v>
       </c>
-      <c r="B71">
-        <v>9028088167</v>
-      </c>
-      <c r="C71">
-        <v>50547211284</v>
-      </c>
-      <c r="D71" t="str">
+      <c r="D71">
+        <v>4761307830</v>
+      </c>
+      <c r="E71">
+        <v>85474338604</v>
+      </c>
+      <c r="F71" t="str">
         <v>367</v>
       </c>
-      <c r="E71" t="str">
-        <v>367BAOLAN-34-35</v>
-      </c>
-      <c r="F71" t="str">
-        <v>宝蓝色</v>
-      </c>
       <c r="G71" t="str">
-        <v>34-35</v>
+        <v>367FENHONG-28-29</v>
       </c>
       <c r="H71" t="str">
-        <v>Royal Blue</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I71" t="str">
+        <v>28-29</v>
+      </c>
+      <c r="J71" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K71" t="str">
+        <v>https://img.kwcdn.com/product/fancy/4de24a98-474b-4277-aad3-8faa48e4187f.jpg</v>
+      </c>
+      <c r="L71" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
+        <v>634418216186000</v>
+      </c>
+      <c r="B72">
+        <v>191085343</v>
+      </c>
+      <c r="C72">
         <v>1239789710</v>
       </c>
-      <c r="B72">
-        <v>5921264490</v>
-      </c>
-      <c r="C72">
-        <v>27985962980</v>
-      </c>
-      <c r="D72" t="str">
+      <c r="D72">
+        <v>1623624014</v>
+      </c>
+      <c r="E72">
+        <v>97265164139</v>
+      </c>
+      <c r="F72" t="str">
         <v>367</v>
       </c>
-      <c r="E72" t="str">
-        <v>367BAI-24-25</v>
-      </c>
-      <c r="F72" t="str">
-        <v>白色</v>
-      </c>
       <c r="G72" t="str">
-        <v>24-25</v>
+        <v>367FENHONG-36-37</v>
       </c>
       <c r="H72" t="str">
-        <v>White</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I72" t="str">
+        <v>36-37</v>
+      </c>
+      <c r="J72" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K72" t="str">
+        <v>https://img.kwcdn.com/product/fancy/4de24a98-474b-4277-aad3-8faa48e4187f.jpg</v>
+      </c>
+      <c r="L72" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
+        <v>634418216186000</v>
+      </c>
+      <c r="B73">
+        <v>191085343</v>
+      </c>
+      <c r="C73">
         <v>1239789710</v>
       </c>
-      <c r="B73">
-        <v>5814195289</v>
-      </c>
-      <c r="C73">
-        <v>37279049832</v>
-      </c>
-      <c r="D73" t="str">
+      <c r="D73">
+        <v>7216342205</v>
+      </c>
+      <c r="E73">
+        <v>13203813063</v>
+      </c>
+      <c r="F73" t="str">
         <v>367</v>
       </c>
-      <c r="E73" t="str">
-        <v>367BAI-36-37</v>
-      </c>
-      <c r="F73" t="str">
+      <c r="G73" t="str">
+        <v>367BAI-28-29</v>
+      </c>
+      <c r="H73" t="str">
         <v>白色</v>
       </c>
-      <c r="G73" t="str">
-        <v>36-37</v>
-      </c>
-      <c r="H73" t="str">
+      <c r="I73" t="str">
+        <v>28-29</v>
+      </c>
+      <c r="J73" t="str">
         <v>White</v>
+      </c>
+      <c r="K73" t="str">
+        <v>https://img.kwcdn.com/product/fancy/401278ff-a538-4734-bd84-96e83204ab41.jpg</v>
+      </c>
+      <c r="L73" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>7244257401</v>
+        <v>634418216186000</v>
       </c>
       <c r="B74">
-        <v>1220328009</v>
+        <v>191085343</v>
       </c>
       <c r="C74">
-        <v>14360026104</v>
-      </c>
-      <c r="D74" t="str">
-        <v/>
-      </c>
-      <c r="E74" t="str">
-        <v/>
+        <v>1239789710</v>
+      </c>
+      <c r="D74">
+        <v>1317901023</v>
+      </c>
+      <c r="E74">
+        <v>34628526711</v>
       </c>
       <c r="F74" t="str">
-        <v>黑色</v>
+        <v>367</v>
       </c>
       <c r="G74" t="str">
-        <v>36</v>
+        <v>367BAOLAN-24-25</v>
       </c>
       <c r="H74" t="str">
-        <v>Black</v>
+        <v>宝蓝色</v>
+      </c>
+      <c r="I74" t="str">
+        <v>24-25</v>
+      </c>
+      <c r="J74" t="str">
+        <v>Royal Blue</v>
+      </c>
+      <c r="K74" t="str">
+        <v>https://img.kwcdn.com/product/fancy/19f46941-3dcb-488c-9399-3442161f81df.jpg</v>
+      </c>
+      <c r="L74" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>7244257401</v>
+        <v>634418216186000</v>
       </c>
       <c r="B75">
-        <v>3358433119</v>
+        <v>191085343</v>
       </c>
       <c r="C75">
-        <v>88030433457</v>
-      </c>
-      <c r="D75" t="str">
-        <v/>
-      </c>
-      <c r="E75" t="str">
-        <v/>
+        <v>1239789710</v>
+      </c>
+      <c r="D75">
+        <v>2803569438</v>
+      </c>
+      <c r="E75">
+        <v>49845649808</v>
       </c>
       <c r="F75" t="str">
-        <v>藏青色</v>
+        <v>367</v>
       </c>
       <c r="G75" t="str">
-        <v>35</v>
+        <v>367BAOLAN-30-31</v>
       </c>
       <c r="H75" t="str">
-        <v>Navy Blue</v>
+        <v>宝蓝色</v>
+      </c>
+      <c r="I75" t="str">
+        <v>30-31</v>
+      </c>
+      <c r="J75" t="str">
+        <v>Royal Blue</v>
+      </c>
+      <c r="K75" t="str">
+        <v>https://img.kwcdn.com/product/fancy/19f46941-3dcb-488c-9399-3442161f81df.jpg</v>
+      </c>
+      <c r="L75" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>7244257401</v>
+        <v>634418216186000</v>
       </c>
       <c r="B76">
-        <v>3677187989</v>
+        <v>191085343</v>
       </c>
       <c r="C76">
-        <v>27397414641</v>
-      </c>
-      <c r="D76" t="str">
-        <v/>
-      </c>
-      <c r="E76" t="str">
-        <v/>
+        <v>1239789710</v>
+      </c>
+      <c r="D76">
+        <v>9957335252</v>
+      </c>
+      <c r="E76">
+        <v>21488751462</v>
       </c>
       <c r="F76" t="str">
-        <v>黑色</v>
+        <v>367</v>
       </c>
       <c r="G76" t="str">
-        <v>39</v>
+        <v>367BAOLAN36-37</v>
       </c>
       <c r="H76" t="str">
-        <v>Black</v>
+        <v>宝蓝色</v>
+      </c>
+      <c r="I76" t="str">
+        <v>36-37</v>
+      </c>
+      <c r="J76" t="str">
+        <v>Royal Blue</v>
+      </c>
+      <c r="K76" t="str">
+        <v>https://img.kwcdn.com/product/fancy/19f46941-3dcb-488c-9399-3442161f81df.jpg</v>
+      </c>
+      <c r="L76" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>7244257401</v>
+        <v>634418216186000</v>
       </c>
       <c r="B77">
-        <v>3896498922</v>
+        <v>191085343</v>
       </c>
       <c r="C77">
-        <v>59856863299</v>
-      </c>
-      <c r="D77" t="str">
-        <v/>
-      </c>
-      <c r="E77" t="str">
-        <v/>
+        <v>1239789710</v>
+      </c>
+      <c r="D77">
+        <v>6229682460</v>
+      </c>
+      <c r="E77">
+        <v>51828004028</v>
       </c>
       <c r="F77" t="str">
-        <v>藏青色</v>
+        <v>367</v>
       </c>
       <c r="G77" t="str">
-        <v>40</v>
+        <v>367BAI-26-27</v>
       </c>
       <c r="H77" t="str">
-        <v>Navy Blue</v>
+        <v>白色</v>
+      </c>
+      <c r="I77" t="str">
+        <v>26-27</v>
+      </c>
+      <c r="J77" t="str">
+        <v>White</v>
+      </c>
+      <c r="K77" t="str">
+        <v>https://img.kwcdn.com/product/fancy/401278ff-a538-4734-bd84-96e83204ab41.jpg</v>
+      </c>
+      <c r="L77" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>7244257401</v>
+        <v>634418216186000</v>
       </c>
       <c r="B78">
-        <v>5505245257</v>
+        <v>191085343</v>
       </c>
       <c r="C78">
-        <v>91037063645</v>
-      </c>
-      <c r="D78" t="str">
-        <v/>
-      </c>
-      <c r="E78" t="str">
-        <v/>
+        <v>1239789710</v>
+      </c>
+      <c r="D78">
+        <v>3386292578</v>
+      </c>
+      <c r="E78">
+        <v>13409117375</v>
       </c>
       <c r="F78" t="str">
-        <v>藏青色</v>
+        <v>367</v>
       </c>
       <c r="G78" t="str">
-        <v>37</v>
+        <v>367BAI-34-35</v>
       </c>
       <c r="H78" t="str">
-        <v>Navy Blue</v>
+        <v>白色</v>
+      </c>
+      <c r="I78" t="str">
+        <v>34-35</v>
+      </c>
+      <c r="J78" t="str">
+        <v>White</v>
+      </c>
+      <c r="K78" t="str">
+        <v>https://img.kwcdn.com/product/fancy/401278ff-a538-4734-bd84-96e83204ab41.jpg</v>
+      </c>
+      <c r="L78" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>7244257401</v>
+        <v>634418216186000</v>
       </c>
       <c r="B79">
-        <v>9898148865</v>
+        <v>191085343</v>
       </c>
       <c r="C79">
-        <v>48112634464</v>
-      </c>
-      <c r="D79" t="str">
-        <v/>
-      </c>
-      <c r="E79" t="str">
-        <v/>
+        <v>1239789710</v>
+      </c>
+      <c r="D79">
+        <v>1845680911</v>
+      </c>
+      <c r="E79">
+        <v>13442806672</v>
       </c>
       <c r="F79" t="str">
-        <v>藏青色</v>
+        <v>367</v>
       </c>
       <c r="G79" t="str">
-        <v>39</v>
+        <v>367FENHONG-32-33</v>
       </c>
       <c r="H79" t="str">
-        <v>Navy Blue</v>
+        <v>粉红色</v>
+      </c>
+      <c r="I79" t="str">
+        <v>32-33</v>
+      </c>
+      <c r="J79" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K79" t="str">
+        <v>https://img.kwcdn.com/product/fancy/4de24a98-474b-4277-aad3-8faa48e4187f.jpg</v>
+      </c>
+      <c r="L79" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>7244257401</v>
+        <v>634418216186000</v>
       </c>
       <c r="B80">
-        <v>4718071171</v>
+        <v>191085343</v>
       </c>
       <c r="C80">
-        <v>59966100727</v>
-      </c>
-      <c r="D80" t="str">
-        <v/>
-      </c>
-      <c r="E80" t="str">
-        <v/>
+        <v>1239789710</v>
+      </c>
+      <c r="D80">
+        <v>3391531775</v>
+      </c>
+      <c r="E80">
+        <v>33515543078</v>
       </c>
       <c r="F80" t="str">
-        <v>黑色</v>
+        <v>367</v>
       </c>
       <c r="G80" t="str">
-        <v>34</v>
+        <v>367BAOLAN-26-27</v>
       </c>
       <c r="H80" t="str">
-        <v>Black</v>
+        <v>宝蓝色</v>
+      </c>
+      <c r="I80" t="str">
+        <v>26-27</v>
+      </c>
+      <c r="J80" t="str">
+        <v>Royal Blue</v>
+      </c>
+      <c r="K80" t="str">
+        <v>https://img.kwcdn.com/product/fancy/19f46941-3dcb-488c-9399-3442161f81df.jpg</v>
+      </c>
+      <c r="L80" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>7244257401</v>
+        <v>634418216186000</v>
       </c>
       <c r="B81">
-        <v>5180891344</v>
+        <v>191085343</v>
       </c>
       <c r="C81">
-        <v>98917828773</v>
-      </c>
-      <c r="D81" t="str">
-        <v/>
-      </c>
-      <c r="E81" t="str">
-        <v/>
+        <v>1239789710</v>
+      </c>
+      <c r="D81">
+        <v>9028088167</v>
+      </c>
+      <c r="E81">
+        <v>50547211284</v>
       </c>
       <c r="F81" t="str">
-        <v>藏青色</v>
+        <v>367</v>
       </c>
       <c r="G81" t="str">
-        <v>38</v>
+        <v>367BAOLAN-34-35</v>
       </c>
       <c r="H81" t="str">
-        <v>Navy Blue</v>
+        <v>宝蓝色</v>
+      </c>
+      <c r="I81" t="str">
+        <v>34-35</v>
+      </c>
+      <c r="J81" t="str">
+        <v>Royal Blue</v>
+      </c>
+      <c r="K81" t="str">
+        <v>https://img.kwcdn.com/product/fancy/19f46941-3dcb-488c-9399-3442161f81df.jpg</v>
+      </c>
+      <c r="L81" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>7244257401</v>
+        <v>634418216186000</v>
       </c>
       <c r="B82">
-        <v>7587781248</v>
+        <v>191085343</v>
       </c>
       <c r="C82">
-        <v>64995417151</v>
-      </c>
-      <c r="D82" t="str">
-        <v/>
-      </c>
-      <c r="E82" t="str">
-        <v/>
+        <v>1239789710</v>
+      </c>
+      <c r="D82">
+        <v>5921264490</v>
+      </c>
+      <c r="E82">
+        <v>27985962980</v>
       </c>
       <c r="F82" t="str">
-        <v>藏青色</v>
+        <v>367</v>
       </c>
       <c r="G82" t="str">
-        <v>34</v>
+        <v>367BAI-24-25</v>
       </c>
       <c r="H82" t="str">
-        <v>Navy Blue</v>
+        <v>白色</v>
+      </c>
+      <c r="I82" t="str">
+        <v>24-25</v>
+      </c>
+      <c r="J82" t="str">
+        <v>White</v>
+      </c>
+      <c r="K82" t="str">
+        <v>https://img.kwcdn.com/product/fancy/401278ff-a538-4734-bd84-96e83204ab41.jpg</v>
+      </c>
+      <c r="L82" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>7244257401</v>
+        <v>634418216186000</v>
       </c>
       <c r="B83">
-        <v>3976778997</v>
+        <v>191085343</v>
       </c>
       <c r="C83">
-        <v>77383931710</v>
-      </c>
-      <c r="D83" t="str">
-        <v/>
-      </c>
-      <c r="E83" t="str">
-        <v/>
+        <v>1239789710</v>
+      </c>
+      <c r="D83">
+        <v>5814195289</v>
+      </c>
+      <c r="E83">
+        <v>37279049832</v>
       </c>
       <c r="F83" t="str">
-        <v>黑色</v>
+        <v>367</v>
       </c>
       <c r="G83" t="str">
-        <v>35</v>
+        <v>367BAI-36-37</v>
       </c>
       <c r="H83" t="str">
-        <v>Black</v>
+        <v>白色</v>
+      </c>
+      <c r="I83" t="str">
+        <v>36-37</v>
+      </c>
+      <c r="J83" t="str">
+        <v>White</v>
+      </c>
+      <c r="K83" t="str">
+        <v>https://img.kwcdn.com/product/fancy/401278ff-a538-4734-bd84-96e83204ab41.jpg</v>
+      </c>
+      <c r="L83" t="str">
+        <v>男童穆勒鞋、洞洞鞋</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
+        <v>634418216186000</v>
+      </c>
+      <c r="B84">
+        <v>992103798</v>
+      </c>
+      <c r="C84">
         <v>7244257401</v>
       </c>
-      <c r="B84">
-        <v>8927004182</v>
-      </c>
-      <c r="C84">
-        <v>90694122102</v>
-      </c>
-      <c r="D84" t="str">
-        <v/>
-      </c>
-      <c r="E84" t="str">
-        <v/>
+      <c r="D84">
+        <v>1220328009</v>
+      </c>
+      <c r="E84">
+        <v>14360026104</v>
       </c>
       <c r="F84" t="str">
+        <v/>
+      </c>
+      <c r="G84" t="str">
+        <v/>
+      </c>
+      <c r="H84" t="str">
         <v>黑色</v>
       </c>
-      <c r="G84" t="str">
-        <v>38</v>
-      </c>
-      <c r="H84" t="str">
+      <c r="I84" t="str">
+        <v>36</v>
+      </c>
+      <c r="J84" t="str">
         <v>Black</v>
+      </c>
+      <c r="K84" t="str">
+        <v>https://img.kwcdn.com/product/fancy/aa5b636b-ad19-4f8f-be2f-6df228365d60.jpg</v>
+      </c>
+      <c r="L84" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
+        <v>634418216186000</v>
+      </c>
+      <c r="B85">
+        <v>992103798</v>
+      </c>
+      <c r="C85">
         <v>7244257401</v>
       </c>
-      <c r="B85">
-        <v>4300186570</v>
-      </c>
-      <c r="C85">
-        <v>93177493743</v>
-      </c>
-      <c r="D85" t="str">
-        <v/>
-      </c>
-      <c r="E85" t="str">
-        <v/>
+      <c r="D85">
+        <v>3358433119</v>
+      </c>
+      <c r="E85">
+        <v>88030433457</v>
       </c>
       <c r="F85" t="str">
-        <v>黑色</v>
+        <v/>
       </c>
       <c r="G85" t="str">
-        <v>37</v>
+        <v/>
       </c>
       <c r="H85" t="str">
-        <v>Black</v>
+        <v>藏青色</v>
+      </c>
+      <c r="I85" t="str">
+        <v>35</v>
+      </c>
+      <c r="J85" t="str">
+        <v>Navy Blue</v>
+      </c>
+      <c r="K85" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6f95ab4f-adcf-4380-903e-cdf81e0e3f0f.jpg</v>
+      </c>
+      <c r="L85" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
+        <v>634418216186000</v>
+      </c>
+      <c r="B86">
+        <v>992103798</v>
+      </c>
+      <c r="C86">
         <v>7244257401</v>
       </c>
-      <c r="B86">
-        <v>8336932097</v>
-      </c>
-      <c r="C86">
-        <v>95585536233</v>
-      </c>
-      <c r="D86" t="str">
-        <v/>
-      </c>
-      <c r="E86" t="str">
-        <v/>
+      <c r="D86">
+        <v>3677187989</v>
+      </c>
+      <c r="E86">
+        <v>27397414641</v>
       </c>
       <c r="F86" t="str">
+        <v/>
+      </c>
+      <c r="G86" t="str">
+        <v/>
+      </c>
+      <c r="H86" t="str">
         <v>黑色</v>
       </c>
-      <c r="G86" t="str">
-        <v>33</v>
-      </c>
-      <c r="H86" t="str">
+      <c r="I86" t="str">
+        <v>39</v>
+      </c>
+      <c r="J86" t="str">
         <v>Black</v>
+      </c>
+      <c r="K86" t="str">
+        <v>https://img.kwcdn.com/product/fancy/aa5b636b-ad19-4f8f-be2f-6df228365d60.jpg</v>
+      </c>
+      <c r="L86" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
+        <v>634418216186000</v>
+      </c>
+      <c r="B87">
+        <v>992103798</v>
+      </c>
+      <c r="C87">
         <v>7244257401</v>
       </c>
-      <c r="B87">
-        <v>2463925707</v>
-      </c>
-      <c r="C87">
-        <v>24644003806</v>
-      </c>
-      <c r="D87" t="str">
-        <v/>
-      </c>
-      <c r="E87" t="str">
-        <v/>
+      <c r="D87">
+        <v>3896498922</v>
+      </c>
+      <c r="E87">
+        <v>59856863299</v>
       </c>
       <c r="F87" t="str">
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <v/>
+      </c>
+      <c r="H87" t="str">
         <v>藏青色</v>
       </c>
-      <c r="G87" t="str">
-        <v>36</v>
-      </c>
-      <c r="H87" t="str">
+      <c r="I87" t="str">
+        <v>40</v>
+      </c>
+      <c r="J87" t="str">
         <v>Navy Blue</v>
+      </c>
+      <c r="K87" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6f95ab4f-adcf-4380-903e-cdf81e0e3f0f.jpg</v>
+      </c>
+      <c r="L87" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
+        <v>634418216186000</v>
+      </c>
+      <c r="B88">
+        <v>992103798</v>
+      </c>
+      <c r="C88">
         <v>7244257401</v>
       </c>
-      <c r="B88">
-        <v>2160611565</v>
-      </c>
-      <c r="C88">
-        <v>80251434107</v>
-      </c>
-      <c r="D88" t="str">
-        <v/>
-      </c>
-      <c r="E88" t="str">
-        <v/>
+      <c r="D88">
+        <v>5505245257</v>
+      </c>
+      <c r="E88">
+        <v>91037063645</v>
       </c>
       <c r="F88" t="str">
-        <v>黑色</v>
+        <v/>
       </c>
       <c r="G88" t="str">
-        <v>40</v>
+        <v/>
       </c>
       <c r="H88" t="str">
-        <v>Black</v>
+        <v>藏青色</v>
+      </c>
+      <c r="I88" t="str">
+        <v>37</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Navy Blue</v>
+      </c>
+      <c r="K88" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6f95ab4f-adcf-4380-903e-cdf81e0e3f0f.jpg</v>
+      </c>
+      <c r="L88" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
+        <v>634418216186000</v>
+      </c>
+      <c r="B89">
+        <v>992103798</v>
+      </c>
+      <c r="C89">
         <v>7244257401</v>
       </c>
-      <c r="B89">
-        <v>6736185548</v>
-      </c>
-      <c r="C89">
-        <v>89055932664</v>
-      </c>
-      <c r="D89" t="str">
-        <v/>
-      </c>
-      <c r="E89" t="str">
-        <v/>
+      <c r="D89">
+        <v>9898148865</v>
+      </c>
+      <c r="E89">
+        <v>48112634464</v>
       </c>
       <c r="F89" t="str">
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <v/>
+      </c>
+      <c r="H89" t="str">
         <v>藏青色</v>
       </c>
-      <c r="G89" t="str">
-        <v>33</v>
-      </c>
-      <c r="H89" t="str">
+      <c r="I89" t="str">
+        <v>39</v>
+      </c>
+      <c r="J89" t="str">
         <v>Navy Blue</v>
+      </c>
+      <c r="K89" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6f95ab4f-adcf-4380-903e-cdf81e0e3f0f.jpg</v>
+      </c>
+      <c r="L89" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1091085595</v>
+        <v>634418216186000</v>
       </c>
       <c r="B90">
-        <v>4980167006</v>
+        <v>992103798</v>
       </c>
       <c r="C90">
-        <v>81543046233</v>
-      </c>
-      <c r="D90" t="str">
-        <v>6202</v>
-      </c>
-      <c r="E90" t="str">
-        <v/>
+        <v>7244257401</v>
+      </c>
+      <c r="D90">
+        <v>4718071171</v>
+      </c>
+      <c r="E90">
+        <v>59966100727</v>
       </c>
       <c r="F90" t="str">
-        <v>深蓝黄</v>
+        <v/>
       </c>
       <c r="G90" t="str">
-        <v>37</v>
+        <v/>
       </c>
       <c r="H90" t="str">
-        <v>Dark Blue Yellow</v>
+        <v>黑色</v>
+      </c>
+      <c r="I90" t="str">
+        <v>34</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Black</v>
+      </c>
+      <c r="K90" t="str">
+        <v>https://img.kwcdn.com/product/fancy/aa5b636b-ad19-4f8f-be2f-6df228365d60.jpg</v>
+      </c>
+      <c r="L90" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1091085595</v>
+        <v>634418216186000</v>
       </c>
       <c r="B91">
-        <v>9325031819</v>
+        <v>992103798</v>
       </c>
       <c r="C91">
-        <v>30691131574</v>
-      </c>
-      <c r="D91" t="str">
-        <v>6202</v>
-      </c>
-      <c r="E91" t="str">
-        <v/>
+        <v>7244257401</v>
+      </c>
+      <c r="D91">
+        <v>5180891344</v>
+      </c>
+      <c r="E91">
+        <v>98917828773</v>
       </c>
       <c r="F91" t="str">
-        <v>深蓝黄</v>
+        <v/>
       </c>
       <c r="G91" t="str">
-        <v>34</v>
+        <v/>
       </c>
       <c r="H91" t="str">
-        <v>Dark Blue Yellow</v>
+        <v>藏青色</v>
+      </c>
+      <c r="I91" t="str">
+        <v>38</v>
+      </c>
+      <c r="J91" t="str">
+        <v>Navy Blue</v>
+      </c>
+      <c r="K91" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6f95ab4f-adcf-4380-903e-cdf81e0e3f0f.jpg</v>
+      </c>
+      <c r="L91" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1091085595</v>
+        <v>634418216186000</v>
       </c>
       <c r="B92">
-        <v>8653327365</v>
+        <v>992103798</v>
       </c>
       <c r="C92">
-        <v>40184403862</v>
-      </c>
-      <c r="D92" t="str">
-        <v>6202</v>
-      </c>
-      <c r="E92" t="str">
-        <v/>
+        <v>7244257401</v>
+      </c>
+      <c r="D92">
+        <v>7587781248</v>
+      </c>
+      <c r="E92">
+        <v>64995417151</v>
       </c>
       <c r="F92" t="str">
-        <v>深蓝黄</v>
+        <v/>
       </c>
       <c r="G92" t="str">
-        <v>36</v>
+        <v/>
       </c>
       <c r="H92" t="str">
-        <v>Dark Blue Yellow</v>
+        <v>藏青色</v>
+      </c>
+      <c r="I92" t="str">
+        <v>34</v>
+      </c>
+      <c r="J92" t="str">
+        <v>Navy Blue</v>
+      </c>
+      <c r="K92" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6f95ab4f-adcf-4380-903e-cdf81e0e3f0f.jpg</v>
+      </c>
+      <c r="L92" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1091085595</v>
+        <v>634418216186000</v>
       </c>
       <c r="B93">
-        <v>1597374987</v>
+        <v>992103798</v>
       </c>
       <c r="C93">
-        <v>87859629320</v>
-      </c>
-      <c r="D93" t="str">
-        <v>6202</v>
-      </c>
-      <c r="E93" t="str">
-        <v/>
+        <v>7244257401</v>
+      </c>
+      <c r="D93">
+        <v>3976778997</v>
+      </c>
+      <c r="E93">
+        <v>77383931710</v>
       </c>
       <c r="F93" t="str">
-        <v>深蓝黄</v>
+        <v/>
       </c>
       <c r="G93" t="str">
+        <v/>
+      </c>
+      <c r="H93" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="I93" t="str">
         <v>35</v>
       </c>
-      <c r="H93" t="str">
-        <v>Dark Blue Yellow</v>
+      <c r="J93" t="str">
+        <v>Black</v>
+      </c>
+      <c r="K93" t="str">
+        <v>https://img.kwcdn.com/product/fancy/aa5b636b-ad19-4f8f-be2f-6df228365d60.jpg</v>
+      </c>
+      <c r="L93" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>9712360721</v>
+        <v>634418216186000</v>
       </c>
       <c r="B94">
-        <v>2073751037</v>
+        <v>992103798</v>
       </c>
       <c r="C94">
-        <v>83289440320</v>
-      </c>
-      <c r="D94" t="str">
-        <v>6202</v>
-      </c>
-      <c r="E94" t="str">
-        <v/>
+        <v>7244257401</v>
+      </c>
+      <c r="D94">
+        <v>8927004182</v>
+      </c>
+      <c r="E94">
+        <v>90694122102</v>
       </c>
       <c r="F94" t="str">
-        <v>黑白色</v>
+        <v/>
       </c>
       <c r="G94" t="str">
-        <v>36</v>
+        <v/>
       </c>
       <c r="H94" t="str">
-        <v>Black And White Color</v>
+        <v>黑色</v>
+      </c>
+      <c r="I94" t="str">
+        <v>38</v>
+      </c>
+      <c r="J94" t="str">
+        <v>Black</v>
+      </c>
+      <c r="K94" t="str">
+        <v>https://img.kwcdn.com/product/fancy/aa5b636b-ad19-4f8f-be2f-6df228365d60.jpg</v>
+      </c>
+      <c r="L94" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>9712360721</v>
+        <v>634418216186000</v>
       </c>
       <c r="B95">
-        <v>6931565748</v>
+        <v>992103798</v>
       </c>
       <c r="C95">
-        <v>60363865155</v>
-      </c>
-      <c r="D95" t="str">
-        <v>6202</v>
-      </c>
-      <c r="E95" t="str">
-        <v/>
+        <v>7244257401</v>
+      </c>
+      <c r="D95">
+        <v>4300186570</v>
+      </c>
+      <c r="E95">
+        <v>93177493743</v>
       </c>
       <c r="F95" t="str">
-        <v>黑白色</v>
+        <v/>
       </c>
       <c r="G95" t="str">
+        <v/>
+      </c>
+      <c r="H95" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="I95" t="str">
         <v>37</v>
       </c>
-      <c r="H95" t="str">
-        <v>Black And White Color</v>
+      <c r="J95" t="str">
+        <v>Black</v>
+      </c>
+      <c r="K95" t="str">
+        <v>https://img.kwcdn.com/product/fancy/aa5b636b-ad19-4f8f-be2f-6df228365d60.jpg</v>
+      </c>
+      <c r="L95" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>9712360721</v>
+        <v>634418216186000</v>
       </c>
       <c r="B96">
-        <v>7820203929</v>
+        <v>992103798</v>
       </c>
       <c r="C96">
-        <v>12912681974</v>
-      </c>
-      <c r="D96" t="str">
-        <v>6202</v>
-      </c>
-      <c r="E96" t="str">
-        <v/>
+        <v>7244257401</v>
+      </c>
+      <c r="D96">
+        <v>8336932097</v>
+      </c>
+      <c r="E96">
+        <v>95585536233</v>
       </c>
       <c r="F96" t="str">
-        <v>黑白色</v>
+        <v/>
       </c>
       <c r="G96" t="str">
-        <v>35</v>
+        <v/>
       </c>
       <c r="H96" t="str">
-        <v>Black And White Color</v>
+        <v>黑色</v>
+      </c>
+      <c r="I96" t="str">
+        <v>33</v>
+      </c>
+      <c r="J96" t="str">
+        <v>Black</v>
+      </c>
+      <c r="K96" t="str">
+        <v>https://img.kwcdn.com/product/fancy/aa5b636b-ad19-4f8f-be2f-6df228365d60.jpg</v>
+      </c>
+      <c r="L96" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>9712360721</v>
+        <v>634418216186000</v>
       </c>
       <c r="B97">
-        <v>6565676436</v>
+        <v>992103798</v>
       </c>
       <c r="C97">
-        <v>46461978813</v>
-      </c>
-      <c r="D97" t="str">
-        <v>6202</v>
-      </c>
-      <c r="E97" t="str">
-        <v/>
+        <v>7244257401</v>
+      </c>
+      <c r="D97">
+        <v>2463925707</v>
+      </c>
+      <c r="E97">
+        <v>24644003806</v>
       </c>
       <c r="F97" t="str">
-        <v>黑白色</v>
+        <v/>
       </c>
       <c r="G97" t="str">
-        <v>34</v>
+        <v/>
       </c>
       <c r="H97" t="str">
-        <v>Black And White Color</v>
+        <v>藏青色</v>
+      </c>
+      <c r="I97" t="str">
+        <v>36</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Navy Blue</v>
+      </c>
+      <c r="K97" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6f95ab4f-adcf-4380-903e-cdf81e0e3f0f.jpg</v>
+      </c>
+      <c r="L97" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>7126016752</v>
+        <v>634418216186000</v>
       </c>
       <c r="B98">
-        <v>5177190500</v>
+        <v>992103798</v>
       </c>
       <c r="C98">
-        <v>40725397970</v>
-      </c>
-      <c r="D98" t="str">
-        <v>6201</v>
-      </c>
-      <c r="E98" t="str">
-        <v>6201HEIJU35</v>
+        <v>7244257401</v>
+      </c>
+      <c r="D98">
+        <v>2160611565</v>
+      </c>
+      <c r="E98">
+        <v>80251434107</v>
       </c>
       <c r="F98" t="str">
-        <v>黑桔色</v>
+        <v/>
       </c>
       <c r="G98" t="str">
-        <v>35</v>
+        <v/>
       </c>
       <c r="H98" t="str">
-        <v>Black Orange</v>
+        <v>黑色</v>
+      </c>
+      <c r="I98" t="str">
+        <v>40</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Black</v>
+      </c>
+      <c r="K98" t="str">
+        <v>https://img.kwcdn.com/product/fancy/aa5b636b-ad19-4f8f-be2f-6df228365d60.jpg</v>
+      </c>
+      <c r="L98" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>7126016752</v>
+        <v>634418216186000</v>
       </c>
       <c r="B99">
-        <v>6083112228</v>
+        <v>992103798</v>
       </c>
       <c r="C99">
-        <v>74082484179</v>
-      </c>
-      <c r="D99" t="str">
-        <v>6201</v>
-      </c>
-      <c r="E99" t="str">
-        <v>6201HEIJU34</v>
+        <v>7244257401</v>
+      </c>
+      <c r="D99">
+        <v>6736185548</v>
+      </c>
+      <c r="E99">
+        <v>89055932664</v>
       </c>
       <c r="F99" t="str">
-        <v>黑桔色</v>
+        <v/>
       </c>
       <c r="G99" t="str">
-        <v>34</v>
+        <v/>
       </c>
       <c r="H99" t="str">
-        <v>Black Orange</v>
+        <v>藏青色</v>
+      </c>
+      <c r="I99" t="str">
+        <v>33</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Navy Blue</v>
+      </c>
+      <c r="K99" t="str">
+        <v>https://img.kwcdn.com/product/fancy/6f95ab4f-adcf-4380-903e-cdf81e0e3f0f.jpg</v>
+      </c>
+      <c r="L99" t="str">
+        <v>男童雪地靴</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>7126016752</v>
+        <v>634418216186000</v>
       </c>
       <c r="B100">
-        <v>4026804249</v>
+        <v>579055403</v>
       </c>
       <c r="C100">
-        <v>38627205590</v>
-      </c>
-      <c r="D100" t="str">
-        <v>6201</v>
-      </c>
-      <c r="E100" t="str">
-        <v>6201HEIJU37</v>
+        <v>1091085595</v>
+      </c>
+      <c r="D100">
+        <v>4980167006</v>
+      </c>
+      <c r="E100">
+        <v>81543046233</v>
       </c>
       <c r="F100" t="str">
-        <v>黑桔色</v>
+        <v>6202</v>
       </c>
       <c r="G100" t="str">
+        <v/>
+      </c>
+      <c r="H100" t="str">
+        <v>深蓝黄</v>
+      </c>
+      <c r="I100" t="str">
         <v>37</v>
       </c>
-      <c r="H100" t="str">
-        <v>Black Orange</v>
+      <c r="J100" t="str">
+        <v>Dark Blue Yellow</v>
+      </c>
+      <c r="K100" t="str">
+        <v>https://img.kwcdn.com/product/fancy/cb8499a3-23e8-48ed-825f-40918ea560f9.jpg</v>
+      </c>
+      <c r="L100" t="str">
+        <v>男士时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>7126016752</v>
+        <v>634418216186000</v>
       </c>
       <c r="B101">
-        <v>1394143550</v>
+        <v>579055403</v>
       </c>
       <c r="C101">
-        <v>17310878270</v>
-      </c>
-      <c r="D101" t="str">
-        <v>6201</v>
-      </c>
-      <c r="E101" t="str">
-        <v>6201HEIJU38</v>
+        <v>1091085595</v>
+      </c>
+      <c r="D101">
+        <v>9325031819</v>
+      </c>
+      <c r="E101">
+        <v>30691131574</v>
       </c>
       <c r="F101" t="str">
-        <v>黑桔色</v>
+        <v>6202</v>
       </c>
       <c r="G101" t="str">
-        <v>38</v>
+        <v/>
       </c>
       <c r="H101" t="str">
-        <v>Black Orange</v>
+        <v>深蓝黄</v>
+      </c>
+      <c r="I101" t="str">
+        <v>34</v>
+      </c>
+      <c r="J101" t="str">
+        <v>Dark Blue Yellow</v>
+      </c>
+      <c r="K101" t="str">
+        <v>https://img.kwcdn.com/product/fancy/cb8499a3-23e8-48ed-825f-40918ea560f9.jpg</v>
+      </c>
+      <c r="L101" t="str">
+        <v>男士时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
+        <v>634418216186000</v>
+      </c>
+      <c r="B102">
+        <v>579055403</v>
+      </c>
+      <c r="C102">
+        <v>1091085595</v>
+      </c>
+      <c r="D102">
+        <v>8653327365</v>
+      </c>
+      <c r="E102">
+        <v>40184403862</v>
+      </c>
+      <c r="F102" t="str">
+        <v>6202</v>
+      </c>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+      <c r="H102" t="str">
+        <v>深蓝黄</v>
+      </c>
+      <c r="I102" t="str">
+        <v>36</v>
+      </c>
+      <c r="J102" t="str">
+        <v>Dark Blue Yellow</v>
+      </c>
+      <c r="K102" t="str">
+        <v>https://img.kwcdn.com/product/fancy/cb8499a3-23e8-48ed-825f-40918ea560f9.jpg</v>
+      </c>
+      <c r="L102" t="str">
+        <v>男士时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>634418216186000</v>
+      </c>
+      <c r="B103">
+        <v>579055403</v>
+      </c>
+      <c r="C103">
+        <v>1091085595</v>
+      </c>
+      <c r="D103">
+        <v>1597374987</v>
+      </c>
+      <c r="E103">
+        <v>87859629320</v>
+      </c>
+      <c r="F103" t="str">
+        <v>6202</v>
+      </c>
+      <c r="G103" t="str">
+        <v/>
+      </c>
+      <c r="H103" t="str">
+        <v>深蓝黄</v>
+      </c>
+      <c r="I103" t="str">
+        <v>35</v>
+      </c>
+      <c r="J103" t="str">
+        <v>Dark Blue Yellow</v>
+      </c>
+      <c r="K103" t="str">
+        <v>https://img.kwcdn.com/product/fancy/cb8499a3-23e8-48ed-825f-40918ea560f9.jpg</v>
+      </c>
+      <c r="L103" t="str">
+        <v>男士时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>634418216186000</v>
+      </c>
+      <c r="B104">
+        <v>846973332</v>
+      </c>
+      <c r="C104">
+        <v>9712360721</v>
+      </c>
+      <c r="D104">
+        <v>2073751037</v>
+      </c>
+      <c r="E104">
+        <v>83289440320</v>
+      </c>
+      <c r="F104" t="str">
+        <v>6202</v>
+      </c>
+      <c r="G104" t="str">
+        <v/>
+      </c>
+      <c r="H104" t="str">
+        <v>黑白色</v>
+      </c>
+      <c r="I104" t="str">
+        <v>36</v>
+      </c>
+      <c r="J104" t="str">
+        <v>Black And White Color</v>
+      </c>
+      <c r="K104" t="str">
+        <v>https://img.kwcdn.com/product/fancy/96b2db92-54db-4ccd-8e90-811f50b4ee89.jpg</v>
+      </c>
+      <c r="L104" t="str">
+        <v>男士时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>634418216186000</v>
+      </c>
+      <c r="B105">
+        <v>846973332</v>
+      </c>
+      <c r="C105">
+        <v>9712360721</v>
+      </c>
+      <c r="D105">
+        <v>6931565748</v>
+      </c>
+      <c r="E105">
+        <v>60363865155</v>
+      </c>
+      <c r="F105" t="str">
+        <v>6202</v>
+      </c>
+      <c r="G105" t="str">
+        <v/>
+      </c>
+      <c r="H105" t="str">
+        <v>黑白色</v>
+      </c>
+      <c r="I105" t="str">
+        <v>37</v>
+      </c>
+      <c r="J105" t="str">
+        <v>Black And White Color</v>
+      </c>
+      <c r="K105" t="str">
+        <v>https://img.kwcdn.com/product/fancy/96b2db92-54db-4ccd-8e90-811f50b4ee89.jpg</v>
+      </c>
+      <c r="L105" t="str">
+        <v>男士时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>634418216186000</v>
+      </c>
+      <c r="B106">
+        <v>846973332</v>
+      </c>
+      <c r="C106">
+        <v>9712360721</v>
+      </c>
+      <c r="D106">
+        <v>7820203929</v>
+      </c>
+      <c r="E106">
+        <v>12912681974</v>
+      </c>
+      <c r="F106" t="str">
+        <v>6202</v>
+      </c>
+      <c r="G106" t="str">
+        <v/>
+      </c>
+      <c r="H106" t="str">
+        <v>黑白色</v>
+      </c>
+      <c r="I106" t="str">
+        <v>35</v>
+      </c>
+      <c r="J106" t="str">
+        <v>Black And White Color</v>
+      </c>
+      <c r="K106" t="str">
+        <v>https://img.kwcdn.com/product/fancy/96b2db92-54db-4ccd-8e90-811f50b4ee89.jpg</v>
+      </c>
+      <c r="L106" t="str">
+        <v>男士时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>634418216186000</v>
+      </c>
+      <c r="B107">
+        <v>846973332</v>
+      </c>
+      <c r="C107">
+        <v>9712360721</v>
+      </c>
+      <c r="D107">
+        <v>6565676436</v>
+      </c>
+      <c r="E107">
+        <v>46461978813</v>
+      </c>
+      <c r="F107" t="str">
+        <v>6202</v>
+      </c>
+      <c r="G107" t="str">
+        <v/>
+      </c>
+      <c r="H107" t="str">
+        <v>黑白色</v>
+      </c>
+      <c r="I107" t="str">
+        <v>34</v>
+      </c>
+      <c r="J107" t="str">
+        <v>Black And White Color</v>
+      </c>
+      <c r="K107" t="str">
+        <v>https://img.kwcdn.com/product/fancy/96b2db92-54db-4ccd-8e90-811f50b4ee89.jpg</v>
+      </c>
+      <c r="L107" t="str">
+        <v>男士时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>634418216186000</v>
+      </c>
+      <c r="B108">
+        <v>401365954</v>
+      </c>
+      <c r="C108">
         <v>7126016752</v>
       </c>
-      <c r="B102">
+      <c r="D108">
+        <v>5177190500</v>
+      </c>
+      <c r="E108">
+        <v>40725397970</v>
+      </c>
+      <c r="F108" t="str">
+        <v>6201</v>
+      </c>
+      <c r="G108" t="str">
+        <v>6201HEIJU35</v>
+      </c>
+      <c r="H108" t="str">
+        <v>黑桔色</v>
+      </c>
+      <c r="I108" t="str">
+        <v>35</v>
+      </c>
+      <c r="J108" t="str">
+        <v>Black Orange</v>
+      </c>
+      <c r="K108" t="str">
+        <v>https://img.kwcdn.com/product/fancy/453940aa-f430-4ef0-b092-1fcc2be2d023.jpg</v>
+      </c>
+      <c r="L108" t="str">
+        <v>男士时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>634418216186000</v>
+      </c>
+      <c r="B109">
+        <v>401365954</v>
+      </c>
+      <c r="C109">
+        <v>7126016752</v>
+      </c>
+      <c r="D109">
+        <v>6083112228</v>
+      </c>
+      <c r="E109">
+        <v>74082484179</v>
+      </c>
+      <c r="F109" t="str">
+        <v>6201</v>
+      </c>
+      <c r="G109" t="str">
+        <v>6201HEIJU34</v>
+      </c>
+      <c r="H109" t="str">
+        <v>黑桔色</v>
+      </c>
+      <c r="I109" t="str">
+        <v>34</v>
+      </c>
+      <c r="J109" t="str">
+        <v>Black Orange</v>
+      </c>
+      <c r="K109" t="str">
+        <v>https://img.kwcdn.com/product/fancy/453940aa-f430-4ef0-b092-1fcc2be2d023.jpg</v>
+      </c>
+      <c r="L109" t="str">
+        <v>男士时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>634418216186000</v>
+      </c>
+      <c r="B110">
+        <v>401365954</v>
+      </c>
+      <c r="C110">
+        <v>7126016752</v>
+      </c>
+      <c r="D110">
+        <v>4026804249</v>
+      </c>
+      <c r="E110">
+        <v>38627205590</v>
+      </c>
+      <c r="F110" t="str">
+        <v>6201</v>
+      </c>
+      <c r="G110" t="str">
+        <v>6201HEIJU37</v>
+      </c>
+      <c r="H110" t="str">
+        <v>黑桔色</v>
+      </c>
+      <c r="I110" t="str">
+        <v>37</v>
+      </c>
+      <c r="J110" t="str">
+        <v>Black Orange</v>
+      </c>
+      <c r="K110" t="str">
+        <v>https://img.kwcdn.com/product/fancy/453940aa-f430-4ef0-b092-1fcc2be2d023.jpg</v>
+      </c>
+      <c r="L110" t="str">
+        <v>男士时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>634418216186000</v>
+      </c>
+      <c r="B111">
+        <v>401365954</v>
+      </c>
+      <c r="C111">
+        <v>7126016752</v>
+      </c>
+      <c r="D111">
+        <v>1394143550</v>
+      </c>
+      <c r="E111">
+        <v>17310878270</v>
+      </c>
+      <c r="F111" t="str">
+        <v>6201</v>
+      </c>
+      <c r="G111" t="str">
+        <v>6201HEIJU38</v>
+      </c>
+      <c r="H111" t="str">
+        <v>黑桔色</v>
+      </c>
+      <c r="I111" t="str">
+        <v>38</v>
+      </c>
+      <c r="J111" t="str">
+        <v>Black Orange</v>
+      </c>
+      <c r="K111" t="str">
+        <v>https://img.kwcdn.com/product/fancy/453940aa-f430-4ef0-b092-1fcc2be2d023.jpg</v>
+      </c>
+      <c r="L111" t="str">
+        <v>男士时装凉鞋、凉拖</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>634418216186000</v>
+      </c>
+      <c r="B112">
+        <v>401365954</v>
+      </c>
+      <c r="C112">
+        <v>7126016752</v>
+      </c>
+      <c r="D112">
         <v>3390565806</v>
       </c>
-      <c r="C102">
+      <c r="E112">
         <v>99261170323</v>
       </c>
-      <c r="D102" t="str">
+      <c r="F112" t="str">
         <v>6201</v>
       </c>
-      <c r="E102" t="str">
+      <c r="G112" t="str">
         <v>6201HEIJU36</v>
       </c>
-      <c r="F102" t="str">
+      <c r="H112" t="str">
         <v>黑桔色</v>
       </c>
-      <c r="G102" t="str">
+      <c r="I112" t="str">
         <v>36</v>
       </c>
-      <c r="H102" t="str">
+      <c r="J112" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K112" t="str">
+        <v>https://img.kwcdn.com/product/fancy/453940aa-f430-4ef0-b092-1fcc2be2d023.jpg</v>
+      </c>
+      <c r="L112" t="str">
+        <v>男士时装凉鞋、凉拖</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H102"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L112"/>
   </ignoredErrors>
 </worksheet>
 </file>